--- a/resources/双拼键位图.xlsx
+++ b/resources/双拼键位图.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlueSky\Documents\Code\Web\Shuang\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565963A8-E6D6-4BC0-B5CD-B294FC03F64D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9600" tabRatio="737" activeTab="12"/>
+    <workbookView xWindow="528" yWindow="0" windowWidth="23040" windowHeight="9600" tabRatio="737" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="国标双拼" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="395">
   <si>
     <t>Q</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1621,7 +1622,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1905,20 +1906,29 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1929,20 +1939,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2257,7 +2258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X16"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -2353,43 +2354,43 @@
       <c r="C4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="N4" s="18"/>
       <c r="O4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="15"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="15"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="15"/>
+      <c r="T4" s="18"/>
       <c r="U4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="18"/>
       <c r="W4" s="1"/>
       <c r="X4" s="3"/>
     </row>
@@ -2398,31 +2399,31 @@
       <c r="C5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="17"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
+      <c r="R5" s="19"/>
       <c r="S5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="T5" s="17"/>
+      <c r="T5" s="19"/>
       <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="V5" s="19"/>
       <c r="W5" s="1"/>
       <c r="X5" s="3"/>
     </row>
@@ -2441,7 +2442,7 @@
         <v>161</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="13" t="s">
         <v>160</v>
       </c>
       <c r="K6" s="4"/>
@@ -2453,7 +2454,7 @@
         <v>156</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="13" t="s">
         <v>154</v>
       </c>
       <c r="Q6" s="4"/>
@@ -2477,70 +2478,70 @@
       <c r="D7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="15"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="21"/>
+      <c r="O7" s="15"/>
       <c r="P7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="15"/>
+      <c r="Q7" s="18"/>
       <c r="R7" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="S7" s="15"/>
+      <c r="S7" s="18"/>
       <c r="T7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="15"/>
+      <c r="U7" s="18"/>
       <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="W7" s="18"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="20"/>
+      <c r="O8" s="23"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="17"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -2591,37 +2592,37 @@
       <c r="E10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="18"/>
       <c r="M10" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="N10" s="15"/>
+      <c r="N10" s="18"/>
       <c r="O10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="15"/>
+      <c r="P10" s="18"/>
       <c r="Q10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="18"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="18" t="s">
+      <c r="U10" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="V10" s="18"/>
+      <c r="V10" s="21"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -2632,27 +2633,27 @@
       <c r="E11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="17"/>
+      <c r="P11" s="19"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -2676,10 +2677,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="19" t="s">
+      <c r="U12" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="V12" s="19"/>
+      <c r="V12" s="22"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -2723,8 +2724,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -2794,10 +2795,10 @@
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="P15" s="13"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -2834,47 +2835,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="V8:W8"/>
@@ -2891,6 +2851,47 @@
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="R7:S7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2899,7 +2900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:X16"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -2995,72 +2996,72 @@
       <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="N4" s="18"/>
       <c r="O4" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="P4" s="15"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="R4" s="15"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="T4" s="15"/>
+      <c r="T4" s="18"/>
       <c r="U4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="18"/>
       <c r="W4" s="1"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="22"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
+      <c r="R5" s="19"/>
       <c r="S5" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="T5" s="17"/>
+      <c r="T5" s="19"/>
       <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="V5" s="19"/>
       <c r="W5" s="1"/>
       <c r="X5" s="3"/>
     </row>
@@ -3079,7 +3080,7 @@
         <v>161</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="13" t="s">
         <v>160</v>
       </c>
       <c r="K6" s="4"/>
@@ -3091,7 +3092,7 @@
         <v>156</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="13" t="s">
         <v>154</v>
       </c>
       <c r="Q6" s="4"/>
@@ -3115,72 +3116,72 @@
       <c r="D7" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="M7" s="15"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="O7" s="21"/>
+      <c r="O7" s="15"/>
       <c r="P7" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="Q7" s="15"/>
+      <c r="Q7" s="18"/>
       <c r="R7" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="S7" s="15"/>
+      <c r="S7" s="18"/>
       <c r="T7" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="U7" s="15"/>
+      <c r="U7" s="18"/>
       <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="W7" s="18"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="20"/>
+      <c r="O8" s="23"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="S8" s="17"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="U8" s="17"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -3231,37 +3232,37 @@
       <c r="E10" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="18"/>
       <c r="M10" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="N10" s="15"/>
+      <c r="N10" s="18"/>
       <c r="O10" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="P10" s="15"/>
+      <c r="P10" s="18"/>
       <c r="Q10" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="18"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="18" t="s">
+      <c r="U10" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="V10" s="18"/>
+      <c r="V10" s="21"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -3270,27 +3271,27 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
+      <c r="P11" s="19"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -3314,10 +3315,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="19" t="s">
+      <c r="U12" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="V12" s="19"/>
+      <c r="V12" s="22"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -3361,8 +3362,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -3432,10 +3433,10 @@
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="P15" s="13"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -3472,6 +3473,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -3488,47 +3530,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3536,7 +3537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:X16"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -3630,72 +3631,72 @@
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="21"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="N4" s="18"/>
       <c r="O4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="15"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="R4" s="15"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="15"/>
+      <c r="T4" s="18"/>
       <c r="U4" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="18"/>
       <c r="W4" s="1"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="22"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="N5" s="17"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
+      <c r="R5" s="19"/>
       <c r="S5" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="T5" s="17"/>
+      <c r="T5" s="19"/>
       <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="V5" s="19"/>
       <c r="W5" s="1"/>
       <c r="X5" s="3"/>
     </row>
@@ -3714,7 +3715,7 @@
         <v>161</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="13" t="s">
         <v>160</v>
       </c>
       <c r="K6" s="4"/>
@@ -3726,7 +3727,7 @@
         <v>156</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="13" t="s">
         <v>154</v>
       </c>
       <c r="Q6" s="4"/>
@@ -3750,74 +3751,74 @@
       <c r="D7" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="M7" s="15"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="O7" s="21"/>
+      <c r="O7" s="15"/>
       <c r="P7" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="Q7" s="15"/>
+      <c r="Q7" s="18"/>
       <c r="R7" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="S7" s="15"/>
+      <c r="S7" s="18"/>
       <c r="T7" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="U7" s="15"/>
+      <c r="U7" s="18"/>
       <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="W7" s="18"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="K8" s="17"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="20"/>
+      <c r="O8" s="23"/>
       <c r="P8" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="S8" s="17"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -3868,37 +3869,37 @@
       <c r="E10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="18"/>
       <c r="M10" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="N10" s="15"/>
+      <c r="N10" s="18"/>
       <c r="O10" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="P10" s="15"/>
+      <c r="P10" s="18"/>
       <c r="Q10" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="18"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="18" t="s">
+      <c r="U10" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="V10" s="18"/>
+      <c r="V10" s="21"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -3907,29 +3908,29 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="N11" s="17"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
+      <c r="P11" s="19"/>
       <c r="Q11" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="R11" s="17"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -3953,10 +3954,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="19" t="s">
+      <c r="U12" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="V12" s="19"/>
+      <c r="V12" s="22"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -4000,8 +4001,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -4071,10 +4072,10 @@
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="P15" s="13"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -4111,6 +4112,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -4127,47 +4169,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4175,7 +4176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:X16"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -4271,72 +4272,72 @@
       <c r="C4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="N4" s="18"/>
       <c r="O4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="15"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="R4" s="15"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="T4" s="15"/>
+      <c r="T4" s="18"/>
       <c r="U4" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="18"/>
       <c r="W4" s="1"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="22"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="N5" s="17"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
+      <c r="R5" s="19"/>
       <c r="S5" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="T5" s="17"/>
+      <c r="T5" s="19"/>
       <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="V5" s="19"/>
       <c r="W5" s="1"/>
       <c r="X5" s="3"/>
     </row>
@@ -4357,7 +4358,7 @@
         <v>161</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="13" t="s">
         <v>160</v>
       </c>
       <c r="K6" s="4"/>
@@ -4369,7 +4370,7 @@
         <v>156</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="13" t="s">
         <v>154</v>
       </c>
       <c r="Q6" s="4"/>
@@ -4393,74 +4394,74 @@
       <c r="D7" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="M7" s="15"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="O7" s="21"/>
+      <c r="O7" s="15"/>
       <c r="P7" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="Q7" s="15"/>
+      <c r="Q7" s="18"/>
       <c r="R7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="15"/>
+      <c r="S7" s="18"/>
       <c r="T7" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="U7" s="15"/>
+      <c r="U7" s="18"/>
       <c r="V7" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="W7" s="15"/>
+      <c r="W7" s="18"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="M8" s="17"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="O8" s="20"/>
+      <c r="O8" s="23"/>
       <c r="P8" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -4509,35 +4510,35 @@
       <c r="E10" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="18"/>
       <c r="M10" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="N10" s="15"/>
+      <c r="N10" s="18"/>
       <c r="O10" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="P10" s="15"/>
+      <c r="P10" s="18"/>
       <c r="Q10" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="18"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="18" t="s">
+      <c r="U10" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="V10" s="18"/>
+      <c r="V10" s="21"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -4546,27 +4547,27 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="17"/>
+      <c r="P11" s="19"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -4590,10 +4591,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="19" t="s">
+      <c r="U12" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="V12" s="19"/>
+      <c r="V12" s="22"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -4637,8 +4638,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -4708,10 +4709,10 @@
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="P15" s="13"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -4748,6 +4749,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -4764,6 +4806,614 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="B1:X16"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="2"/>
+    <col min="2" max="2" width="3.6640625" style="2" customWidth="1"/>
+    <col min="3" max="23" width="10.77734375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="4.33203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1"/>
+      <c r="C4" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="R4" s="18"/>
+      <c r="S4" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="T4" s="18"/>
+      <c r="U4" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="V4" s="18"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="19"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="S7" s="18"/>
+      <c r="T7" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="U7" s="18"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="N10" s="18"/>
+      <c r="O10" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="18"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="O15" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="T10:W11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
@@ -4774,45 +5424,30 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -4857,19 +5492,19 @@
     <row r="3" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="11" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="11" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="11" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="11" t="s">
-        <v>7</v>
+        <v>168</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="11" t="s">
@@ -4877,27 +5512,29 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="11" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="11" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="4"/>
+      <c r="T3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="U3" s="11" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="V3" s="4"/>
       <c r="W3" s="1"/>
@@ -4906,78 +5543,78 @@
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1"/>
       <c r="C4" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" s="21"/>
+        <v>173</v>
+      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="F4" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="15"/>
+        <v>174</v>
+      </c>
+      <c r="H4" s="18"/>
       <c r="I4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="15"/>
+        <v>175</v>
+      </c>
+      <c r="J4" s="18"/>
       <c r="K4" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="L4" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="L4" s="18"/>
       <c r="M4" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="N4" s="15"/>
+        <v>134</v>
+      </c>
+      <c r="N4" s="18"/>
       <c r="O4" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="P4" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="P4" s="18"/>
       <c r="Q4" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="R4" s="15"/>
+        <v>176</v>
+      </c>
+      <c r="R4" s="18"/>
       <c r="S4" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="T4" s="15"/>
+        <v>177</v>
+      </c>
+      <c r="T4" s="18"/>
       <c r="U4" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="V4" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="V4" s="18"/>
       <c r="W4" s="1"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="17"/>
       <c r="E5" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="F5" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="F5" s="19"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="P5" s="19"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
+      <c r="R5" s="19"/>
       <c r="S5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="T5" s="17"/>
+      <c r="T5" s="19"/>
       <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="V5" s="19"/>
       <c r="W5" s="1"/>
       <c r="X5" s="3"/>
     </row>
@@ -4987,17 +5624,19 @@
       <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="F6" s="11" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="11" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="25" t="s">
-        <v>160</v>
+      <c r="J6" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="11" t="s">
@@ -5005,15 +5644,15 @@
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="11" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="13" t="s">
         <v>154</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="11" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="11" t="s">
@@ -5021,7 +5660,7 @@
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W6" s="4"/>
       <c r="X6" s="3"/>
@@ -5032,70 +5671,76 @@
       <c r="D7" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="15"/>
+        <v>53</v>
+      </c>
+      <c r="G7" s="18"/>
       <c r="H7" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="I7" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="I7" s="18"/>
       <c r="J7" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="K7" s="15"/>
+        <v>181</v>
+      </c>
+      <c r="K7" s="18"/>
       <c r="L7" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="M7" s="15"/>
+        <v>102</v>
+      </c>
+      <c r="M7" s="18"/>
       <c r="N7" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="O7" s="21"/>
+        <v>104</v>
+      </c>
+      <c r="O7" s="15"/>
       <c r="P7" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q7" s="15"/>
+        <v>95</v>
+      </c>
+      <c r="Q7" s="18"/>
       <c r="R7" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="S7" s="15"/>
+        <v>138</v>
+      </c>
+      <c r="S7" s="18"/>
       <c r="T7" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="U7" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="U7" s="18"/>
       <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="W7" s="18"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="17"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" s="23"/>
+      <c r="P8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="S8" s="19"/>
+      <c r="T8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="U8" s="19"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -5103,7 +5748,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="11" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="11" t="s">
@@ -5115,21 +5760,21 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="11" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="11" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="11" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="3"/>
@@ -5144,40 +5789,40 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="18"/>
       <c r="G10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="H10" s="18"/>
       <c r="I10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10" s="18"/>
+      <c r="O10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="18"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="V10" s="21"/>
+      <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -5185,29 +5830,33 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="19"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="19"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="12" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5227,12 +5876,14 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="U12" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" s="22"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="13" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5243,37 +5894,37 @@
         <v>56</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>379</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>380</v>
+        <v>192</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>66</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>69</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -5285,7 +5936,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="7" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>195</v>
@@ -5294,25 +5945,25 @@
         <v>80</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>65</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>381</v>
+        <v>197</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -5333,20 +5984,20 @@
         <v>76</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>383</v>
+        <v>200</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="O15" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="P15" s="13"/>
+      <c r="O15" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="P15" s="20"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -5382,7 +6033,48 @@
       <c r="X16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="57">
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -5399,6 +6091,619 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:X16"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="2"/>
+    <col min="2" max="2" width="3.6640625" style="2" customWidth="1"/>
+    <col min="3" max="23" width="10.77734375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="4.33203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1"/>
+      <c r="C4" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="V4" s="18"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="V5" s="19"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="S7" s="18"/>
+      <c r="T7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="U7" s="18"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="19"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10" s="18"/>
+      <c r="O10" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" s="18"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="V10" s="21"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="R11" s="19"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" s="22"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="10">
+        <v>3</v>
+      </c>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="O15" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
@@ -5409,29 +6714,623 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:X16"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="2"/>
+    <col min="2" max="2" width="3.6640625" style="2" customWidth="1"/>
+    <col min="3" max="23" width="10.77734375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="4.33203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1"/>
+      <c r="C4" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="V4" s="18"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="S7" s="18"/>
+      <c r="T7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="18"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" s="23"/>
+      <c r="P8" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="U8" s="19"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10" s="18"/>
+      <c r="O10" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="R10" s="18"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="V10" s="21"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" s="22"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="10">
+        <v>6</v>
+      </c>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="O15" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="T10:W11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="P7:Q7"/>
@@ -5439,14 +7338,45 @@
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:X16"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -5491,19 +7421,19 @@
     <row r="3" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="11" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="11" t="s">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="11" t="s">
-        <v>167</v>
+        <v>5</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="11" t="s">
-        <v>168</v>
+        <v>7</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="11" t="s">
@@ -5511,27 +7441,27 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="11" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="11" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>38</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="11" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="V3" s="4"/>
       <c r="W3" s="1"/>
@@ -5540,78 +7470,74 @@
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1"/>
       <c r="C4" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="21"/>
+        <v>227</v>
+      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="15"/>
+        <v>228</v>
+      </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="H4" s="15"/>
+        <v>229</v>
+      </c>
+      <c r="H4" s="18"/>
       <c r="I4" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="J4" s="15"/>
+        <v>230</v>
+      </c>
+      <c r="J4" s="18"/>
       <c r="K4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="15"/>
+        <v>231</v>
+      </c>
+      <c r="L4" s="18"/>
       <c r="M4" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="N4" s="15"/>
+        <v>233</v>
+      </c>
+      <c r="N4" s="18"/>
       <c r="O4" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="15"/>
+        <v>234</v>
+      </c>
+      <c r="P4" s="18"/>
       <c r="Q4" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="R4" s="15"/>
+        <v>235</v>
+      </c>
+      <c r="R4" s="18"/>
       <c r="S4" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="T4" s="15"/>
+        <v>237</v>
+      </c>
+      <c r="T4" s="18"/>
       <c r="U4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="15"/>
+        <v>238</v>
+      </c>
+      <c r="V4" s="18"/>
       <c r="W4" s="1"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="19"/>
       <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="P5" s="17"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="T5" s="17"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="19"/>
       <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="V5" s="19"/>
       <c r="W5" s="1"/>
       <c r="X5" s="3"/>
     </row>
@@ -5621,19 +7547,17 @@
       <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="11" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="11" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="25" t="s">
-        <v>18</v>
+      <c r="J6" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="11" t="s">
@@ -5641,15 +7565,15 @@
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="11" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="13" t="s">
         <v>154</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="11" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="11" t="s">
@@ -5657,7 +7581,7 @@
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W6" s="4"/>
       <c r="X6" s="3"/>
@@ -5666,78 +7590,76 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="15"/>
+        <v>239</v>
+      </c>
+      <c r="E7" s="18"/>
       <c r="F7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="G7" s="18"/>
       <c r="H7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="15"/>
+        <v>212</v>
+      </c>
+      <c r="I7" s="18"/>
       <c r="J7" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="K7" s="15"/>
+        <v>242</v>
+      </c>
+      <c r="K7" s="18"/>
       <c r="L7" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="15"/>
+        <v>243</v>
+      </c>
+      <c r="M7" s="18"/>
       <c r="N7" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="O7" s="15"/>
       <c r="P7" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q7" s="15"/>
+        <v>244</v>
+      </c>
+      <c r="Q7" s="18"/>
       <c r="R7" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="S7" s="15"/>
+        <v>141</v>
+      </c>
+      <c r="S7" s="18"/>
       <c r="T7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="U7" s="15"/>
+        <v>245</v>
+      </c>
+      <c r="U7" s="18"/>
       <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="W7" s="18"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="I8" s="19"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="17"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="S8" s="17"/>
+        <v>105</v>
+      </c>
+      <c r="S8" s="19"/>
       <c r="T8" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="U8" s="17"/>
+        <v>246</v>
+      </c>
+      <c r="U8" s="19"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -5745,7 +7667,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="11" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="11" t="s">
@@ -5757,21 +7679,21 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="11" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="11" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="11" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="3"/>
@@ -5786,39 +7708,39 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="15"/>
+        <v>247</v>
+      </c>
+      <c r="F10" s="18"/>
       <c r="G10" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="15"/>
+        <v>248</v>
+      </c>
+      <c r="H10" s="18"/>
       <c r="I10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="15"/>
+        <v>249</v>
+      </c>
+      <c r="J10" s="18"/>
       <c r="K10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="15"/>
+        <v>250</v>
+      </c>
+      <c r="L10" s="18"/>
       <c r="M10" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="N10" s="15"/>
+        <v>251</v>
+      </c>
+      <c r="N10" s="18"/>
       <c r="O10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="15"/>
+        <v>252</v>
+      </c>
+      <c r="P10" s="18"/>
       <c r="Q10" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="R10" s="15"/>
+        <v>103</v>
+      </c>
+      <c r="R10" s="18"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="V10" s="18"/>
+      <c r="U10" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="V10" s="21"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -5827,29 +7749,27 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="17"/>
+        <v>173</v>
+      </c>
+      <c r="H11" s="19"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="L11" s="17"/>
+        <v>116</v>
+      </c>
+      <c r="L11" s="19"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="17"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="19"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -5873,10 +7793,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="V12" s="19"/>
+      <c r="U12" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="V12" s="22"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -5884,44 +7804,52 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="E13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="25"/>
       <c r="H13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="I13" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>192</v>
+      <c r="L13" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="O13" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="P13" s="7" t="s">
+      <c r="O13" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Q13" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="R13" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="T13" s="3"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -5929,41 +7857,51 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="H14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="I14" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="8" t="s">
-        <v>197</v>
+      <c r="L14" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="P14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="Q14" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="R14" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="S14" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -5974,27 +7912,29 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="E15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="H15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>201</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="O15" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="P15" s="13"/>
+      <c r="O15" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="20"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -6030,7 +7970,60 @@
       <c r="X16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="69">
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -6047,1333 +8040,14 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:X16"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:X16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" style="2"/>
-    <col min="2" max="2" width="3.6640625" style="2" customWidth="1"/>
-    <col min="3" max="23" width="10.77734375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="4.33203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="3"/>
-    </row>
-    <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1"/>
-      <c r="C4" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="V4" s="15"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="V5" s="17"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="U6" s="6"/>
-      <c r="V6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="V10" s="18"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="V12" s="19"/>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="10">
-        <v>3</v>
-      </c>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="O15" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:X16"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:X16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" style="2"/>
-    <col min="2" max="2" width="3.6640625" style="2" customWidth="1"/>
-    <col min="3" max="23" width="10.77734375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="4.33203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="3"/>
-    </row>
-    <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1"/>
-      <c r="C4" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="V4" s="15"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="U6" s="6"/>
-      <c r="V6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="V10" s="18"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="V12" s="19"/>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="10">
-        <v>6</v>
-      </c>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="O15" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:X16"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -7445,16 +8119,16 @@
         <v>10</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="11" t="s">
@@ -7467,74 +8141,76 @@
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1"/>
       <c r="C4" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="21"/>
+        <v>135</v>
+      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="15"/>
+        <v>267</v>
+      </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="J4" s="15"/>
+        <v>117</v>
+      </c>
+      <c r="J4" s="18"/>
       <c r="K4" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="L4" s="15"/>
+        <v>204</v>
+      </c>
+      <c r="L4" s="18"/>
       <c r="M4" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="N4" s="15"/>
+        <v>240</v>
+      </c>
+      <c r="N4" s="18"/>
       <c r="O4" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="P4" s="15"/>
+        <v>268</v>
+      </c>
+      <c r="P4" s="18"/>
       <c r="Q4" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="R4" s="15"/>
+        <v>108</v>
+      </c>
+      <c r="R4" s="18"/>
       <c r="S4" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="T4" s="15"/>
+        <v>269</v>
+      </c>
+      <c r="T4" s="18"/>
       <c r="U4" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="V4" s="15"/>
+        <v>270</v>
+      </c>
+      <c r="V4" s="18"/>
       <c r="W4" s="1"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="17"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" s="19"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="17"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="19"/>
       <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="V5" s="19"/>
       <c r="W5" s="1"/>
       <c r="X5" s="3"/>
     </row>
@@ -7553,7 +8229,7 @@
         <v>161</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="13" t="s">
         <v>160</v>
       </c>
       <c r="K6" s="4"/>
@@ -7565,7 +8241,7 @@
         <v>156</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="13" t="s">
         <v>154</v>
       </c>
       <c r="Q6" s="4"/>
@@ -7587,76 +8263,70 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="E7" s="18"/>
       <c r="F7" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="15"/>
+        <v>271</v>
+      </c>
+      <c r="G7" s="18"/>
       <c r="H7" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="I7" s="15"/>
+        <v>272</v>
+      </c>
+      <c r="I7" s="18"/>
       <c r="J7" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="K7" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="K7" s="18"/>
       <c r="L7" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="M7" s="15"/>
+        <v>106</v>
+      </c>
+      <c r="M7" s="18"/>
       <c r="N7" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="O7" s="21"/>
+        <v>245</v>
+      </c>
+      <c r="O7" s="15"/>
       <c r="P7" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q7" s="15"/>
+        <v>273</v>
+      </c>
+      <c r="Q7" s="18"/>
       <c r="R7" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="S7" s="15"/>
+        <v>274</v>
+      </c>
+      <c r="S7" s="18"/>
       <c r="T7" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="U7" s="15"/>
+        <v>275</v>
+      </c>
+      <c r="U7" s="18"/>
       <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="W7" s="18"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="I8" s="17"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="20"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="O8" s="23"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="U8" s="17"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -7679,7 +8349,7 @@
         <v>159</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>39</v>
+        <v>394</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>158</v>
@@ -7705,39 +8375,39 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F10" s="15"/>
+        <v>276</v>
+      </c>
+      <c r="F10" s="18"/>
       <c r="G10" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="H10" s="15"/>
+        <v>211</v>
+      </c>
+      <c r="H10" s="18"/>
       <c r="I10" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="J10" s="15"/>
+        <v>145</v>
+      </c>
+      <c r="J10" s="18"/>
       <c r="K10" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="L10" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="L10" s="18"/>
       <c r="M10" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="N10" s="15"/>
+        <v>208</v>
+      </c>
+      <c r="N10" s="18"/>
       <c r="O10" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="P10" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="P10" s="18"/>
       <c r="Q10" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="R10" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="R10" s="18"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="V10" s="18"/>
+      <c r="U10" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="V10" s="21"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -7746,27 +8416,29 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="H11" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="H11" s="19"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
+        <v>33</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N11" s="19"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
+      <c r="P11" s="19"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -7790,10 +8462,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="V12" s="19"/>
+      <c r="U12" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="V12" s="22"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -7801,52 +8473,44 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="8" t="s">
         <v>60</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="O13" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="P13" s="24" t="s">
+      <c r="O13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="R13" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="S13" s="24" t="s">
-        <v>64</v>
-      </c>
+      <c r="Q13" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -7854,51 +8518,41 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L14" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>78</v>
+      <c r="M14" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="P14" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" s="7" t="s">
+      <c r="O14" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="R14" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="S14" s="24" t="s">
-        <v>67</v>
-      </c>
+      <c r="Q14" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -7909,29 +8563,27 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="8" t="s">
+        <v>283</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="P15" s="13"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -7967,7 +8619,48 @@
       <c r="X16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="57">
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -7984,67 +8677,14 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:X16"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -8116,13 +8756,13 @@
         <v>10</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>12</v>
@@ -8138,76 +8778,80 @@
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1"/>
       <c r="C4" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="21"/>
+        <v>285</v>
+      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="15"/>
+        <v>286</v>
+      </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="H4" s="15"/>
+        <v>107</v>
+      </c>
+      <c r="H4" s="18"/>
       <c r="I4" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="15"/>
+        <v>288</v>
+      </c>
+      <c r="J4" s="18"/>
       <c r="K4" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="L4" s="15"/>
+        <v>289</v>
+      </c>
+      <c r="L4" s="18"/>
       <c r="M4" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="N4" s="15"/>
+        <v>102</v>
+      </c>
+      <c r="N4" s="18"/>
       <c r="O4" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="P4" s="15"/>
+        <v>213</v>
+      </c>
+      <c r="P4" s="18"/>
       <c r="Q4" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="R4" s="15"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="T4" s="15"/>
+        <v>291</v>
+      </c>
+      <c r="T4" s="18"/>
       <c r="U4" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="V4" s="15"/>
+        <v>292</v>
+      </c>
+      <c r="V4" s="18"/>
       <c r="W4" s="1"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="19"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="L5" s="19"/>
       <c r="M5" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="N5" s="17"/>
+        <v>147</v>
+      </c>
+      <c r="N5" s="19"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
+      <c r="R5" s="19"/>
       <c r="S5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="T5" s="17"/>
+      <c r="T5" s="19"/>
       <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="V5" s="19"/>
       <c r="W5" s="1"/>
       <c r="X5" s="3"/>
     </row>
@@ -8226,7 +8870,7 @@
         <v>161</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="13" t="s">
         <v>160</v>
       </c>
       <c r="K6" s="4"/>
@@ -8238,7 +8882,7 @@
         <v>156</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="13" t="s">
         <v>154</v>
       </c>
       <c r="Q6" s="4"/>
@@ -8262,68 +8906,72 @@
       <c r="D7" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="G7" s="15"/>
+        <v>97</v>
+      </c>
+      <c r="G7" s="18"/>
       <c r="H7" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="I7" s="15"/>
+        <v>245</v>
+      </c>
+      <c r="I7" s="18"/>
       <c r="J7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="15"/>
+        <v>242</v>
+      </c>
+      <c r="K7" s="18"/>
       <c r="L7" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="M7" s="15"/>
+        <v>140</v>
+      </c>
+      <c r="M7" s="18"/>
       <c r="N7" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="O7" s="21"/>
+        <v>206</v>
+      </c>
+      <c r="O7" s="15"/>
       <c r="P7" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q7" s="15"/>
+        <v>210</v>
+      </c>
+      <c r="Q7" s="18"/>
       <c r="R7" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="S7" s="15"/>
+        <v>294</v>
+      </c>
+      <c r="S7" s="18"/>
       <c r="T7" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+        <v>141</v>
+      </c>
+      <c r="U7" s="18"/>
+      <c r="V7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="18"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="19"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="O8" s="20"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="23"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -8346,7 +8994,7 @@
         <v>159</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>394</v>
+        <v>298</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>158</v>
@@ -8372,39 +9020,39 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="F10" s="15"/>
+        <v>131</v>
+      </c>
+      <c r="F10" s="18"/>
       <c r="G10" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="H10" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="H10" s="18"/>
       <c r="I10" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="J10" s="15"/>
+        <v>183</v>
+      </c>
+      <c r="J10" s="18"/>
       <c r="K10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="15"/>
+        <v>295</v>
+      </c>
+      <c r="L10" s="18"/>
       <c r="M10" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="N10" s="15"/>
+        <v>296</v>
+      </c>
+      <c r="N10" s="18"/>
       <c r="O10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="15"/>
+        <v>115</v>
+      </c>
+      <c r="P10" s="18"/>
       <c r="Q10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="R10" s="18"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="V10" s="18"/>
+      <c r="U10" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="V10" s="21"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -8413,29 +9061,23 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="17"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="N11" s="17"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
+      <c r="P11" s="19"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -8459,10 +9101,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="V12" s="19"/>
+      <c r="U12" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" s="22"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -8477,37 +9119,37 @@
         <v>56</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>57</v>
+        <v>299</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>75</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>60</v>
+        <v>301</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>62</v>
+        <v>302</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>69</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -8522,31 +9164,31 @@
         <v>72</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>196</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>65</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>201</v>
+        <v>306</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>81</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -8573,14 +9215,14 @@
         <v>82</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="P15" s="13"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -8617,6 +9259,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -8633,55 +9316,14 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:X16"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -8736,7 +9378,9 @@
       <c r="G3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="I3" s="11" t="s">
         <v>7</v>
       </c>
@@ -8752,15 +9396,11 @@
       <c r="O3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>297</v>
-      </c>
+      <c r="P3" s="4"/>
       <c r="Q3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="R3" s="4"/>
       <c r="S3" s="11" t="s">
         <v>12</v>
       </c>
@@ -8775,80 +9415,76 @@
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1"/>
       <c r="C4" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" s="21"/>
+        <v>131</v>
+      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="F4" s="15"/>
+        <v>311</v>
+      </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="15"/>
+        <v>229</v>
+      </c>
+      <c r="H4" s="18"/>
       <c r="I4" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="J4" s="15"/>
+        <v>312</v>
+      </c>
+      <c r="J4" s="18"/>
       <c r="K4" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="L4" s="15"/>
+        <v>245</v>
+      </c>
+      <c r="L4" s="18"/>
       <c r="M4" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="N4" s="15"/>
+        <v>315</v>
+      </c>
+      <c r="N4" s="18"/>
       <c r="O4" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="P4" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="P4" s="18"/>
       <c r="Q4" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="R4" s="15"/>
+        <v>176</v>
+      </c>
+      <c r="R4" s="18"/>
       <c r="S4" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="T4" s="15"/>
+        <v>269</v>
+      </c>
+      <c r="T4" s="18"/>
       <c r="U4" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="V4" s="15"/>
+        <v>145</v>
+      </c>
+      <c r="V4" s="18"/>
       <c r="W4" s="1"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="F5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="17"/>
+        <v>313</v>
+      </c>
+      <c r="J5" s="19"/>
       <c r="K5" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="N5" s="17"/>
+        <v>314</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
+      <c r="R5" s="19"/>
       <c r="S5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="T5" s="17"/>
+      <c r="T5" s="19"/>
       <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="V5" s="19"/>
       <c r="W5" s="1"/>
       <c r="X5" s="3"/>
     </row>
@@ -8858,7 +9494,9 @@
       <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="F6" s="11" t="s">
         <v>163</v>
       </c>
@@ -8867,7 +9505,7 @@
         <v>161</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="13" t="s">
         <v>160</v>
       </c>
       <c r="K6" s="4"/>
@@ -8879,7 +9517,7 @@
         <v>156</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="13" t="s">
         <v>154</v>
       </c>
       <c r="Q6" s="4"/>
@@ -8903,72 +9541,70 @@
       <c r="D7" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="15"/>
+        <v>240</v>
+      </c>
+      <c r="G7" s="18"/>
       <c r="H7" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="I7" s="15"/>
+        <v>248</v>
+      </c>
+      <c r="I7" s="18"/>
       <c r="J7" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="M7" s="15"/>
+        <v>316</v>
+      </c>
+      <c r="M7" s="18"/>
       <c r="N7" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="O7" s="21"/>
+        <v>181</v>
+      </c>
+      <c r="O7" s="15"/>
       <c r="P7" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q7" s="15"/>
+        <v>144</v>
+      </c>
+      <c r="Q7" s="18"/>
       <c r="R7" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="S7" s="15"/>
+        <v>317</v>
+      </c>
+      <c r="S7" s="18"/>
       <c r="T7" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="W7" s="15"/>
+        <v>318</v>
+      </c>
+      <c r="U7" s="18"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="18"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="G8" s="17"/>
+        <v>136</v>
+      </c>
+      <c r="G8" s="19"/>
       <c r="H8" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="17"/>
+        <v>203</v>
+      </c>
+      <c r="I8" s="19"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="20"/>
+      <c r="O8" s="23"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -8991,7 +9627,7 @@
         <v>159</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>298</v>
+        <v>37</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>158</v>
@@ -9017,39 +9653,39 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="15"/>
+        <v>274</v>
+      </c>
+      <c r="F10" s="18"/>
       <c r="G10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="15"/>
+        <v>113</v>
+      </c>
+      <c r="H10" s="18"/>
       <c r="I10" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="J10" s="15"/>
+        <v>115</v>
+      </c>
+      <c r="J10" s="18"/>
       <c r="K10" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="L10" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="L10" s="18"/>
       <c r="M10" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="N10" s="15"/>
+        <v>132</v>
+      </c>
+      <c r="N10" s="18"/>
       <c r="O10" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="P10" s="15"/>
+        <v>320</v>
+      </c>
+      <c r="P10" s="18"/>
       <c r="Q10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="15"/>
+        <v>289</v>
+      </c>
+      <c r="R10" s="18"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="V10" s="18"/>
+      <c r="U10" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="V10" s="21"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -9058,23 +9694,29 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="L11" s="19"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="R11" s="19"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -9098,10 +9740,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="V12" s="19"/>
+      <c r="U12" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="V12" s="22"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -9116,13 +9758,13 @@
         <v>56</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>75</v>
@@ -9145,8 +9787,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -9161,25 +9803,25 @@
         <v>72</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>65</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>81</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>74</v>
@@ -9212,14 +9854,14 @@
         <v>82</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="P15" s="13"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -9256,6 +9898,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -9272,55 +9955,14 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:X16"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -9375,9 +10017,7 @@
       <c r="G3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="11" t="s">
         <v>7</v>
       </c>
@@ -9393,11 +10033,15 @@
       <c r="O3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="4"/>
+      <c r="P3" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="Q3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="R3" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="S3" s="11" t="s">
         <v>12</v>
       </c>
@@ -9412,76 +10056,78 @@
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1"/>
       <c r="C4" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="21"/>
+        <v>285</v>
+      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="F4" s="15"/>
+        <v>286</v>
+      </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="H4" s="15"/>
+        <v>107</v>
+      </c>
+      <c r="H4" s="18"/>
       <c r="I4" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="J4" s="15"/>
+        <v>288</v>
+      </c>
+      <c r="J4" s="18"/>
       <c r="K4" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="L4" s="15"/>
+        <v>289</v>
+      </c>
+      <c r="L4" s="18"/>
       <c r="M4" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="N4" s="15"/>
+        <v>102</v>
+      </c>
+      <c r="N4" s="18"/>
       <c r="O4" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="15"/>
+        <v>213</v>
+      </c>
+      <c r="P4" s="18"/>
       <c r="Q4" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="R4" s="15"/>
+        <v>108</v>
+      </c>
+      <c r="R4" s="18"/>
       <c r="S4" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="T4" s="15"/>
+        <v>291</v>
+      </c>
+      <c r="T4" s="18"/>
       <c r="U4" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="V4" s="15"/>
+        <v>292</v>
+      </c>
+      <c r="V4" s="18"/>
       <c r="W4" s="1"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="19"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" s="19"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
+      <c r="R5" s="19"/>
       <c r="S5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="T5" s="17"/>
+      <c r="T5" s="19"/>
       <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="V5" s="19"/>
       <c r="W5" s="1"/>
       <c r="X5" s="3"/>
     </row>
@@ -9491,9 +10137,7 @@
       <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>322</v>
-      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="11" t="s">
         <v>163</v>
       </c>
@@ -9502,7 +10146,7 @@
         <v>161</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="13" t="s">
         <v>160</v>
       </c>
       <c r="K6" s="4"/>
@@ -9514,7 +10158,7 @@
         <v>156</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="13" t="s">
         <v>154</v>
       </c>
       <c r="Q6" s="4"/>
@@ -9538,70 +10182,72 @@
       <c r="D7" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="G7" s="15"/>
+        <v>97</v>
+      </c>
+      <c r="G7" s="18"/>
       <c r="H7" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="I7" s="15"/>
+        <v>245</v>
+      </c>
+      <c r="I7" s="18"/>
       <c r="J7" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="M7" s="15"/>
+        <v>140</v>
+      </c>
+      <c r="M7" s="18"/>
       <c r="N7" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="O7" s="21"/>
+        <v>206</v>
+      </c>
+      <c r="O7" s="15"/>
       <c r="P7" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q7" s="15"/>
+        <v>210</v>
+      </c>
+      <c r="Q7" s="18"/>
       <c r="R7" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="S7" s="15"/>
+        <v>294</v>
+      </c>
+      <c r="S7" s="18"/>
       <c r="T7" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+        <v>141</v>
+      </c>
+      <c r="U7" s="18"/>
+      <c r="V7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="18"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="17"/>
+        <v>293</v>
+      </c>
+      <c r="G8" s="19"/>
       <c r="H8" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="I8" s="17"/>
+        <v>112</v>
+      </c>
+      <c r="I8" s="19"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
+      <c r="M8" s="19"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="20"/>
+      <c r="O8" s="23"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -9624,7 +10270,7 @@
         <v>159</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>158</v>
@@ -9650,39 +10296,39 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="F10" s="15"/>
+        <v>131</v>
+      </c>
+      <c r="F10" s="18"/>
       <c r="G10" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="H10" s="18"/>
       <c r="I10" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="N10" s="18"/>
+      <c r="O10" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="P10" s="15"/>
+      <c r="P10" s="18"/>
       <c r="Q10" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="R10" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="R10" s="18"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="V10" s="18"/>
+      <c r="U10" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="V10" s="21"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -9691,29 +10337,25 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J11" s="17"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="R11" s="17"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -9737,10 +10379,10 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="V12" s="19"/>
+      <c r="U12" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" s="22"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
@@ -9755,13 +10397,13 @@
         <v>56</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>75</v>
@@ -9784,8 +10426,8 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
@@ -9800,25 +10442,25 @@
         <v>72</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>65</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>81</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>74</v>
@@ -9851,14 +10493,14 @@
         <v>82</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="P15" s="13"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -9895,6 +10537,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -9911,686 +10594,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X16"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:X16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" style="2"/>
-    <col min="2" max="2" width="3.6640625" style="2" customWidth="1"/>
-    <col min="3" max="23" width="10.77734375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="4.33203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="3"/>
-    </row>
-    <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1"/>
-      <c r="C4" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="V4" s="15"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="U6" s="6"/>
-      <c r="V6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="W7" s="15"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="V10" s="18"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="V12" s="19"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="O15" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/双拼键位图.xlsx
+++ b/resources/双拼键位图.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuoyu/projects/Shuang/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gordon\Desktop\spring-project\Shuang\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E759B187-9DC3-C245-8ADD-2B83EE7D7099}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6383AC8-8280-4BA5-AA32-C7603E7273BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28660" windowHeight="14340" tabRatio="823" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="823" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="国标双拼" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="168">
   <si>
     <t>Q</t>
   </si>
@@ -501,13 +501,61 @@
   </si>
   <si>
     <t>小月</t>
+  </si>
+  <si>
+    <t>uang</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>uo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ou</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>uai</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>iao</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ua</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ian</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,15 +818,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -790,6 +829,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1078,17 +1126,17 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="17" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="8"/>
-    <col min="2" max="2" width="3.6640625" style="8" customWidth="1"/>
-    <col min="3" max="23" width="10.83203125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="4.33203125" style="8"/>
+    <col min="1" max="1" width="4.375" style="8"/>
+    <col min="2" max="2" width="3.625" style="8" customWidth="1"/>
+    <col min="3" max="23" width="10.875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="3.625" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="4.375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" customHeight="1"/>
-    <row r="2" spans="2:24" ht="20" customHeight="1">
+    <row r="1" spans="2:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1113,7 +1161,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="2:24" ht="40" customHeight="1">
+    <row r="3" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -1162,85 +1210,85 @@
       <c r="W3" s="9"/>
       <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="2:24" ht="40" customHeight="1">
+    <row r="4" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="17" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="17" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="18"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="2:24" ht="40" customHeight="1">
+    <row r="5" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="19" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="2:24" ht="40" customHeight="1">
+    <row r="6" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
@@ -1285,79 +1333,79 @@
       <c r="W6" s="4"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="2:24" ht="40" customHeight="1">
+    <row r="7" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="17" t="s">
+      <c r="S7" s="15"/>
+      <c r="T7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="2:24" ht="40" customHeight="1">
+    <row r="8" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="19" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="U8" s="20"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="2:24" ht="40" customHeight="1">
+    <row r="9" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1398,79 +1446,79 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="2:24" ht="40" customHeight="1">
+    <row r="10" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="17" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17" t="s">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="19"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="2:24" ht="40" customHeight="1">
+    <row r="11" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="19" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="2:24" ht="40" customHeight="1">
+    <row r="12" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1490,14 +1538,14 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="20"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="2:24" ht="40" customHeight="1">
+    <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1537,12 +1585,12 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="2:24" ht="40" customHeight="1">
+    <row r="14" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1587,7 +1635,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="2:24" ht="39.5" customHeight="1">
+    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1608,10 +1656,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -1621,7 +1669,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="2:24" ht="20" customHeight="1">
+    <row r="16" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1648,56 +1696,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -1705,6 +1703,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1720,17 +1768,17 @@
       <selection activeCell="B2" sqref="B2:X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="17" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="8"/>
-    <col min="2" max="2" width="3.6640625" style="8" customWidth="1"/>
-    <col min="3" max="23" width="10.83203125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="4.33203125" style="8"/>
+    <col min="1" max="1" width="4.375" style="8"/>
+    <col min="2" max="2" width="3.625" style="8" customWidth="1"/>
+    <col min="3" max="23" width="10.875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="3.625" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="4.375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" customHeight="1"/>
-    <row r="2" spans="2:24" ht="20" customHeight="1">
+    <row r="1" spans="2:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1755,7 +1803,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="2:24" ht="40" customHeight="1">
+    <row r="3" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -1804,81 +1852,81 @@
       <c r="W3" s="9"/>
       <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="2:24" ht="40" customHeight="1">
+    <row r="4" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="17" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="17" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="18"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="2:24" ht="40" customHeight="1">
+    <row r="5" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="2:24" ht="40" customHeight="1">
+    <row r="6" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
@@ -1923,83 +1971,83 @@
       <c r="W6" s="4"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="2:24" ht="40" customHeight="1">
+    <row r="7" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="17" t="s">
+      <c r="S7" s="15"/>
+      <c r="T7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="2:24" ht="40" customHeight="1">
+    <row r="8" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="19" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="19" t="s">
+      <c r="S8" s="17"/>
+      <c r="T8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="20"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="2:24" ht="40" customHeight="1">
+    <row r="9" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2040,77 +2088,77 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="2:24" ht="40" customHeight="1">
+    <row r="10" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="17" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17" t="s">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="19"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="2:24" ht="40" customHeight="1">
+    <row r="11" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="2:24" ht="40" customHeight="1">
+    <row r="12" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -2130,14 +2178,14 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="20"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="2:24" ht="40" customHeight="1">
+    <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2185,12 +2233,12 @@
         <v>71</v>
       </c>
       <c r="T13" s="10"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="2:24" ht="40" customHeight="1">
+    <row r="14" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2245,7 +2293,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="2:24" ht="39.5" customHeight="1">
+    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2268,10 +2316,10 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -2281,7 +2329,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="2:24" ht="20" customHeight="1">
+    <row r="16" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2308,59 +2356,6 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="O15:P15"/>
@@ -2377,6 +2372,59 @@
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2392,17 +2440,17 @@
       <selection activeCell="B2" sqref="B2:X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="17" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="8"/>
-    <col min="2" max="2" width="3.6640625" style="8" customWidth="1"/>
-    <col min="3" max="23" width="10.83203125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="4.33203125" style="8"/>
+    <col min="1" max="1" width="4.375" style="8"/>
+    <col min="2" max="2" width="3.625" style="8" customWidth="1"/>
+    <col min="3" max="23" width="10.875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="3.625" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="4.375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" customHeight="1"/>
-    <row r="2" spans="2:24" ht="20" customHeight="1">
+    <row r="1" spans="2:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -2427,7 +2475,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="2:24" ht="40" customHeight="1">
+    <row r="3" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -2478,85 +2526,85 @@
       <c r="W3" s="9"/>
       <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="2:24" ht="40" customHeight="1">
+    <row r="4" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="17" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="17" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="18"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="2:24" ht="40" customHeight="1">
+    <row r="5" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="19" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19" t="s">
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="2:24" ht="40" customHeight="1">
+    <row r="6" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
@@ -2603,85 +2651,85 @@
       <c r="W6" s="4"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="2:24" ht="40" customHeight="1">
+    <row r="7" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="17" t="s">
+      <c r="S7" s="15"/>
+      <c r="T7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="2:24" ht="40" customHeight="1">
+    <row r="8" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="19" t="s">
+      <c r="M8" s="17"/>
+      <c r="N8" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="19" t="s">
+      <c r="O8" s="17"/>
+      <c r="P8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="19" t="s">
+      <c r="Q8" s="17"/>
+      <c r="R8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="19" t="s">
+      <c r="S8" s="17"/>
+      <c r="T8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="20"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="2:24" ht="40" customHeight="1">
+    <row r="9" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2722,79 +2770,79 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="2:24" ht="40" customHeight="1">
+    <row r="10" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="17" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17" t="s">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="19"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="2:24" ht="40" customHeight="1">
+    <row r="11" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="19" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="2:24" ht="40" customHeight="1">
+    <row r="12" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -2814,14 +2862,14 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="20"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="2:24" ht="40" customHeight="1">
+    <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2861,12 +2909,12 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="2:24" ht="40" customHeight="1">
+    <row r="14" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2911,7 +2959,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="2:24" ht="39.5" customHeight="1">
+    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2932,10 +2980,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -2945,7 +2993,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="2:24" ht="20" customHeight="1">
+    <row r="16" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2972,56 +3020,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -3029,6 +3027,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3044,16 +3092,16 @@
       <selection activeCell="B2" sqref="B2:X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="8"/>
-    <col min="2" max="2" width="3.6640625" style="8" customWidth="1"/>
-    <col min="3" max="23" width="10.83203125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="4.33203125" style="8"/>
+    <col min="1" max="1" width="4.375" style="8"/>
+    <col min="2" max="2" width="3.625" style="8" customWidth="1"/>
+    <col min="3" max="23" width="10.875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="3.625" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="4.375" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="20" customHeight="1">
+    <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -3078,7 +3126,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="2:24" ht="40" customHeight="1">
+    <row r="3" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -3129,77 +3177,77 @@
       <c r="W3" s="9"/>
       <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="2:24" ht="40" customHeight="1">
+    <row r="4" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="17" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="18"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="2:24" ht="40" customHeight="1">
+    <row r="5" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="19" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="19" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="20"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="2:24" ht="40" customHeight="1">
+    <row r="6" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
@@ -3248,81 +3296,81 @@
       <c r="W6" s="4"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="2:24" ht="40" customHeight="1">
+    <row r="7" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="17" t="s">
+      <c r="S7" s="15"/>
+      <c r="T7" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="2:24" ht="40" customHeight="1">
+    <row r="8" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="19" t="s">
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="20"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="2:24" ht="40" customHeight="1">
+    <row r="9" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3361,79 +3409,79 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="2:24" ht="40" customHeight="1">
+    <row r="10" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="17" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17" t="s">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="19"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="2:24" ht="40" customHeight="1">
+    <row r="11" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19" t="s">
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="19" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="20"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="2:24" ht="40" customHeight="1">
+    <row r="12" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -3453,13 +3501,13 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="20"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="2:24" ht="40" customHeight="1">
+    <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -3499,14 +3547,14 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
       <c r="W13" s="11">
         <v>3</v>
       </c>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="2:24" ht="40" customHeight="1">
+    <row r="14" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -3551,7 +3599,7 @@
       <c r="W14" s="12"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="2:24" ht="39.5" customHeight="1">
+    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -3572,10 +3620,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -3585,7 +3633,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="2:24" ht="20" customHeight="1">
+    <row r="16" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -3612,56 +3660,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -3669,6 +3667,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3684,16 +3732,16 @@
       <selection activeCell="B2" sqref="B2:X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="8"/>
-    <col min="2" max="2" width="3.6640625" style="8" customWidth="1"/>
-    <col min="3" max="23" width="10.83203125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="4.33203125" style="8"/>
+    <col min="1" max="1" width="4.375" style="8"/>
+    <col min="2" max="2" width="3.625" style="8" customWidth="1"/>
+    <col min="3" max="23" width="10.875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="3.625" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="4.375" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="20" customHeight="1">
+    <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -3718,7 +3766,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="2:24" ht="40" customHeight="1">
+    <row r="3" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -3769,77 +3817,77 @@
       <c r="W3" s="9"/>
       <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="2:24" ht="40" customHeight="1">
+    <row r="4" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="17" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="18"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="2:24" ht="40" customHeight="1">
+    <row r="5" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="19" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="2:24" ht="40" customHeight="1">
+    <row r="6" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
@@ -3888,85 +3936,85 @@
       <c r="W6" s="4"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="2:24" ht="40" customHeight="1">
+    <row r="7" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="17" t="s">
+      <c r="S7" s="15"/>
+      <c r="T7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="2:24" ht="40" customHeight="1">
+    <row r="8" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="19" t="s">
+      <c r="M8" s="17"/>
+      <c r="N8" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="19" t="s">
+      <c r="O8" s="17"/>
+      <c r="P8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="19" t="s">
+      <c r="Q8" s="17"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="U8" s="20"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="2:24" ht="40" customHeight="1">
+    <row r="9" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -4005,75 +4053,75 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="2:24" ht="40" customHeight="1">
+    <row r="10" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="17" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17" t="s">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="19"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="2:24" ht="40" customHeight="1">
+    <row r="11" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="2:24" ht="40" customHeight="1">
+    <row r="12" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -4093,13 +4141,13 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="20"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="2:24" ht="40" customHeight="1">
+    <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -4139,14 +4187,14 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
       <c r="W13" s="11">
         <v>6</v>
       </c>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="2:24" ht="40" customHeight="1">
+    <row r="14" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -4191,7 +4239,7 @@
       <c r="W14" s="12"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="2:24" ht="39.5" customHeight="1">
+    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -4212,10 +4260,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -4225,7 +4273,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="2:24" ht="20" customHeight="1">
+    <row r="16" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -4252,56 +4300,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -4309,6 +4307,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4321,20 +4369,20 @@
   <dimension ref="B1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="X16" sqref="B2:X16"/>
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="17" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1"/>
-    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
-    <col min="3" max="23" width="10.83203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="4.33203125" style="1"/>
+    <col min="1" max="1" width="4.375" style="1"/>
+    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
+    <col min="3" max="23" width="10.875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="4.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" customHeight="1"/>
-    <row r="2" spans="2:24" ht="20" customHeight="1">
+    <row r="1" spans="2:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4359,7 +4407,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="2:24" ht="40" customHeight="1">
+    <row r="3" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -4408,79 +4456,77 @@
       <c r="W3" s="2"/>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="2:24" ht="40" customHeight="1">
+    <row r="4" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="17" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="T4" s="15"/>
+      <c r="U4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="18"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="2"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="2:24" ht="40" customHeight="1">
+    <row r="5" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="T5" s="17"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="2"/>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="2:24" ht="40" customHeight="1">
+    <row r="6" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
@@ -4525,83 +4571,83 @@
       <c r="W6" s="4"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="2:24" ht="40" customHeight="1">
+    <row r="7" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="17" t="s">
+      <c r="S7" s="15"/>
+      <c r="T7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="2:24" ht="40" customHeight="1">
+    <row r="8" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="19" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="19" t="s">
+      <c r="Q8" s="17"/>
+      <c r="R8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="2:24" ht="40" customHeight="1">
+    <row r="9" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4642,79 +4688,79 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="2:24" ht="40" customHeight="1">
+    <row r="10" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="17" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17" t="s">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="19"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="2:24" ht="40" customHeight="1">
+    <row r="11" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="19" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R11" s="20"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="2:24" ht="40" customHeight="1">
+    <row r="12" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -4734,14 +4780,14 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="20"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="2:24" ht="40" customHeight="1">
+    <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -4781,12 +4827,12 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="2:24" ht="40" customHeight="1">
+    <row r="14" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -4831,7 +4877,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="2:24" ht="39.5" customHeight="1">
+    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -4852,10 +4898,10 @@
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -4865,7 +4911,7 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="2:24" ht="20" customHeight="1">
+    <row r="16" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -4892,56 +4938,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -4949,6 +4945,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4964,17 +5010,17 @@
       <selection activeCell="B2" sqref="B2:X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="17" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="8"/>
-    <col min="2" max="2" width="3.6640625" style="8" customWidth="1"/>
-    <col min="3" max="23" width="10.83203125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="4.33203125" style="8"/>
+    <col min="1" max="1" width="4.375" style="8"/>
+    <col min="2" max="2" width="3.625" style="8" customWidth="1"/>
+    <col min="3" max="23" width="10.875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="3.625" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="4.375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" customHeight="1"/>
-    <row r="2" spans="2:24" ht="20" customHeight="1">
+    <row r="1" spans="2:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -4999,7 +5045,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="2:24" ht="40" customHeight="1">
+    <row r="3" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -5048,85 +5094,85 @@
       <c r="W3" s="9"/>
       <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="2:24" ht="40" customHeight="1">
+    <row r="4" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="17" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="17" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="18"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="2:24" ht="40" customHeight="1">
+    <row r="5" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="19" t="s">
+      <c r="L5" s="17"/>
+      <c r="M5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="2:24" ht="40" customHeight="1">
+    <row r="6" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
@@ -5171,79 +5217,79 @@
       <c r="W6" s="4"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="2:24" ht="40" customHeight="1">
+    <row r="7" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="17" t="s">
+      <c r="S7" s="15"/>
+      <c r="T7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="2:24" ht="40" customHeight="1">
+    <row r="8" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="2:24" ht="40" customHeight="1">
+    <row r="9" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -5284,75 +5330,75 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="2:24" ht="40" customHeight="1">
+    <row r="10" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="17" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17" t="s">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="10"/>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="2:24" ht="40" customHeight="1">
+    <row r="11" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="10"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="2:24" ht="40" customHeight="1">
+    <row r="12" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -5377,7 +5423,7 @@
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="2:24" ht="40" customHeight="1">
+    <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -5422,7 +5468,7 @@
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="2:24" ht="40" customHeight="1">
+    <row r="14" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -5467,7 +5513,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="2:24" ht="39.5" customHeight="1">
+    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -5488,10 +5534,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -5501,7 +5547,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="2:24" ht="20" customHeight="1">
+    <row r="16" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -5528,46 +5574,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="T10:W11"/>
     <mergeCell ref="O10:P10"/>
@@ -5584,6 +5590,46 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5599,17 +5645,17 @@
       <selection activeCell="B2" sqref="B2:X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="17" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="8"/>
-    <col min="2" max="2" width="3.6640625" style="8" customWidth="1"/>
-    <col min="3" max="23" width="10.83203125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="4.33203125" style="8"/>
+    <col min="1" max="1" width="4.375" style="8"/>
+    <col min="2" max="2" width="3.625" style="8" customWidth="1"/>
+    <col min="3" max="23" width="10.875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="3.625" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="4.375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" customHeight="1"/>
-    <row r="2" spans="2:24" ht="20" customHeight="1">
+    <row r="1" spans="2:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -5634,7 +5680,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="2:24" ht="40" customHeight="1">
+    <row r="3" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -5683,87 +5729,87 @@
       <c r="W3" s="9"/>
       <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="2:24" ht="40" customHeight="1">
+    <row r="4" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="17" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="17" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="18"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="2:24" ht="40" customHeight="1">
+    <row r="5" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="19" t="s">
+      <c r="L5" s="17"/>
+      <c r="M5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="2:24" ht="40" customHeight="1">
+    <row r="6" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
@@ -5808,81 +5854,81 @@
       <c r="W6" s="4"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="2:24" ht="40" customHeight="1">
+    <row r="7" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="17" t="s">
+      <c r="S7" s="15"/>
+      <c r="T7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="17" t="s">
+      <c r="U7" s="15"/>
+      <c r="V7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="W7" s="18"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="2:24" ht="40" customHeight="1">
+    <row r="8" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="2:24" ht="40" customHeight="1">
+    <row r="9" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -5923,73 +5969,73 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="2:24" ht="40" customHeight="1">
+    <row r="10" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="17" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17" t="s">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="19"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="2:24" ht="40" customHeight="1">
+    <row r="11" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="2:24" ht="40" customHeight="1">
+    <row r="12" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -6009,14 +6055,14 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="20"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="2:24" ht="40" customHeight="1">
+    <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -6056,12 +6102,12 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="2:24" ht="40" customHeight="1">
+    <row r="14" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -6106,7 +6152,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="2:24" ht="39.5" customHeight="1">
+    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -6127,10 +6173,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -6140,7 +6186,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="2:24" ht="20" customHeight="1">
+    <row r="16" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -6167,56 +6213,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -6224,6 +6220,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6239,17 +6285,17 @@
       <selection activeCell="B2" sqref="B2:X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="17" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="8"/>
-    <col min="2" max="2" width="3.6640625" style="8" customWidth="1"/>
-    <col min="3" max="23" width="10.83203125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="4.33203125" style="8"/>
+    <col min="1" max="1" width="4.375" style="8"/>
+    <col min="2" max="2" width="3.625" style="8" customWidth="1"/>
+    <col min="3" max="23" width="10.875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="3.625" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="4.375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" customHeight="1"/>
-    <row r="2" spans="2:24" ht="20" customHeight="1">
+    <row r="1" spans="2:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -6274,7 +6320,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="2:24" ht="40" customHeight="1">
+    <row r="3" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -6323,85 +6369,85 @@
       <c r="W3" s="9"/>
       <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="2:24" ht="40" customHeight="1">
+    <row r="4" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="17" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="17" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="18"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="2:24" ht="40" customHeight="1">
+    <row r="5" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="19" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="2:24" ht="40" customHeight="1">
+    <row r="6" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
@@ -6446,81 +6492,81 @@
       <c r="W6" s="4"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="2:24" ht="40" customHeight="1">
+    <row r="7" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="17" t="s">
+      <c r="S7" s="15"/>
+      <c r="T7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="17" t="s">
+      <c r="U7" s="15"/>
+      <c r="V7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="W7" s="18"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="2:24" ht="40" customHeight="1">
+    <row r="8" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="2:24" ht="40" customHeight="1">
+    <row r="9" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -6561,75 +6607,75 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="2:24" ht="40" customHeight="1">
+    <row r="10" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="17" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17" t="s">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="19"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="2:24" ht="40" customHeight="1">
+    <row r="11" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="2:24" ht="40" customHeight="1">
+    <row r="12" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -6649,14 +6695,14 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="20"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="2:24" ht="40" customHeight="1">
+    <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -6696,12 +6742,12 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="2:24" ht="40" customHeight="1">
+    <row r="14" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -6746,7 +6792,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="2:24" ht="39.5" customHeight="1">
+    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -6767,10 +6813,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -6780,7 +6826,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="2:24" ht="20" customHeight="1">
+    <row r="16" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -6807,56 +6853,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -6864,6 +6860,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6879,17 +6925,17 @@
       <selection activeCell="B2" sqref="B2:X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="17" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="8"/>
-    <col min="2" max="2" width="3.6640625" style="8" customWidth="1"/>
-    <col min="3" max="23" width="10.83203125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="4.33203125" style="8"/>
+    <col min="1" max="1" width="4.375" style="8"/>
+    <col min="2" max="2" width="3.625" style="8" customWidth="1"/>
+    <col min="3" max="23" width="10.875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="3.625" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="4.375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" customHeight="1"/>
-    <row r="2" spans="2:24" ht="20" customHeight="1">
+    <row r="1" spans="2:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -6914,7 +6960,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="2:24" ht="40" customHeight="1">
+    <row r="3" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -6963,81 +7009,81 @@
       <c r="W3" s="9"/>
       <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="2:24" ht="40" customHeight="1">
+    <row r="4" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="17" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="17" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="18"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="2:24" ht="40" customHeight="1">
+    <row r="5" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19" t="s">
+      <c r="L5" s="17"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="2:24" ht="40" customHeight="1">
+    <row r="6" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
@@ -7082,81 +7128,81 @@
       <c r="W6" s="4"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="2:24" ht="40" customHeight="1">
+    <row r="7" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="17" t="s">
+      <c r="S7" s="15"/>
+      <c r="T7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="2:24" ht="40" customHeight="1">
+    <row r="8" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="19" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="19" t="s">
+      <c r="S8" s="17"/>
+      <c r="T8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="20"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="2:24" ht="40" customHeight="1">
+    <row r="9" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -7197,77 +7243,77 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="2:24" ht="40" customHeight="1">
+    <row r="10" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="17" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17" t="s">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="19"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="2:24" ht="40" customHeight="1">
+    <row r="11" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="2:24" ht="40" customHeight="1">
+    <row r="12" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -7287,14 +7333,14 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="20"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="2:24" ht="40" customHeight="1">
+    <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -7334,12 +7380,12 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="2:24" ht="40" customHeight="1">
+    <row r="14" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -7384,7 +7430,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="2:24" ht="39.5" customHeight="1">
+    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -7405,10 +7451,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -7418,7 +7464,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="2:24" ht="20" customHeight="1">
+    <row r="16" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -7445,56 +7491,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -7502,6 +7498,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7517,17 +7563,17 @@
       <selection activeCell="B2" sqref="B2:X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="17" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="8"/>
-    <col min="2" max="2" width="3.6640625" style="8" customWidth="1"/>
-    <col min="3" max="23" width="10.83203125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="4.33203125" style="8"/>
+    <col min="1" max="1" width="4.375" style="8"/>
+    <col min="2" max="2" width="3.625" style="8" customWidth="1"/>
+    <col min="3" max="23" width="10.875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="3.625" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="4.375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" customHeight="1"/>
-    <row r="2" spans="2:24" ht="20" customHeight="1">
+    <row r="1" spans="2:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -7552,7 +7598,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="2:24" ht="40" customHeight="1">
+    <row r="3" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -7599,83 +7645,83 @@
       <c r="W3" s="9"/>
       <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="2:24" ht="40" customHeight="1">
+    <row r="4" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="17" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="17" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="18"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="2:24" ht="40" customHeight="1">
+    <row r="5" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19" t="s">
+      <c r="L5" s="17"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="2:24" ht="40" customHeight="1">
+    <row r="6" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
@@ -7722,79 +7768,79 @@
       <c r="W6" s="4"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="2:24" ht="40" customHeight="1">
+    <row r="7" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="17" t="s">
+      <c r="S7" s="15"/>
+      <c r="T7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="2:24" ht="40" customHeight="1">
+    <row r="8" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="2:24" ht="40" customHeight="1">
+    <row r="9" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -7835,79 +7881,79 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="2:24" ht="40" customHeight="1">
+    <row r="10" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="17" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17" t="s">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="19"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="2:24" ht="40" customHeight="1">
+    <row r="11" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19" t="s">
+      <c r="J11" s="17"/>
+      <c r="K11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="19" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="R11" s="20"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="2:24" ht="40" customHeight="1">
+    <row r="12" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -7927,14 +7973,14 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="20"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="2:24" ht="40" customHeight="1">
+    <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -7974,12 +8020,12 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="2:24" ht="40" customHeight="1">
+    <row r="14" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -8024,7 +8070,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="2:24" ht="39.5" customHeight="1">
+    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -8045,10 +8091,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -8058,7 +8104,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="2:24" ht="20" customHeight="1">
+    <row r="16" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -8085,56 +8131,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -8142,6 +8138,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8157,17 +8203,17 @@
       <selection activeCell="B2" sqref="B2:X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="17" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="8"/>
-    <col min="2" max="2" width="3.6640625" style="8" customWidth="1"/>
-    <col min="3" max="23" width="10.83203125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="4.33203125" style="8"/>
+    <col min="1" max="1" width="4.375" style="8"/>
+    <col min="2" max="2" width="3.625" style="8" customWidth="1"/>
+    <col min="3" max="23" width="10.875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="3.625" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="4.375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" customHeight="1"/>
-    <row r="2" spans="2:24" ht="20" customHeight="1">
+    <row r="1" spans="2:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -8192,7 +8238,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="2:24" ht="40" customHeight="1">
+    <row r="3" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -8241,83 +8287,83 @@
       <c r="W3" s="9"/>
       <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="2:24" ht="40" customHeight="1">
+    <row r="4" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="17" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="17" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="18"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="2:24" ht="40" customHeight="1">
+    <row r="5" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="19" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="2:24" ht="40" customHeight="1">
+    <row r="6" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
@@ -8362,77 +8408,77 @@
       <c r="W6" s="4"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="2:24" ht="40" customHeight="1">
+    <row r="7" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="17" t="s">
+      <c r="S7" s="15"/>
+      <c r="T7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="2:24" ht="40" customHeight="1">
+    <row r="8" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="19" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="2:24" ht="40" customHeight="1">
+    <row r="9" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -8473,79 +8519,79 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="2:24" ht="40" customHeight="1">
+    <row r="10" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="17" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17" t="s">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="19"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="2:24" ht="40" customHeight="1">
+    <row r="11" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="2:24" ht="40" customHeight="1">
+    <row r="12" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -8565,14 +8611,14 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="20"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="2:24" ht="40" customHeight="1">
+    <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -8612,12 +8658,12 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="2:24" ht="40" customHeight="1">
+    <row r="14" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -8662,7 +8708,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="2:24" ht="39.5" customHeight="1">
+    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -8683,10 +8729,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -8696,7 +8742,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="2:24" ht="20" customHeight="1">
+    <row r="16" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -8723,56 +8769,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -8780,6 +8776,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8795,17 +8841,17 @@
       <selection activeCell="B2" sqref="B2:X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="17" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="8"/>
-    <col min="2" max="2" width="3.6640625" style="8" customWidth="1"/>
-    <col min="3" max="23" width="10.83203125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="4.33203125" style="8"/>
+    <col min="1" max="1" width="4.375" style="8"/>
+    <col min="2" max="2" width="3.625" style="8" customWidth="1"/>
+    <col min="3" max="23" width="10.875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="3.625" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="4.375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" customHeight="1"/>
-    <row r="2" spans="2:24" ht="20" customHeight="1">
+    <row r="1" spans="2:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -8830,7 +8876,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="2:24" ht="40" customHeight="1">
+    <row r="3" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -8879,81 +8925,81 @@
       <c r="W3" s="9"/>
       <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="2:24" ht="40" customHeight="1">
+    <row r="4" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="17" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="17" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="18"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="2:24" ht="40" customHeight="1">
+    <row r="5" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="19" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="2:24" ht="40" customHeight="1">
+    <row r="6" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
@@ -9000,83 +9046,83 @@
       <c r="W6" s="4"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="2:24" ht="40" customHeight="1">
+    <row r="7" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="17" t="s">
+      <c r="S7" s="15"/>
+      <c r="T7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="17" t="s">
+      <c r="U7" s="15"/>
+      <c r="V7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="W7" s="18"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="2:24" ht="40" customHeight="1">
+    <row r="8" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="19" t="s">
+      <c r="M8" s="17"/>
+      <c r="N8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="19" t="s">
+      <c r="O8" s="17"/>
+      <c r="P8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="2:24" ht="40" customHeight="1">
+    <row r="9" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -9115,75 +9161,75 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="2:24" ht="40" customHeight="1">
+    <row r="10" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="17" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17" t="s">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="19"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="2:24" ht="40" customHeight="1">
+    <row r="11" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="19" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="2:24" ht="40" customHeight="1">
+    <row r="12" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -9203,14 +9249,14 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="20"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="2:24" ht="40" customHeight="1">
+    <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -9250,12 +9296,12 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="2:24" ht="40" customHeight="1">
+    <row r="14" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -9300,7 +9346,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="2:24" ht="39.5" customHeight="1">
+    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -9321,10 +9367,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -9334,7 +9380,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="2:24" ht="20" customHeight="1">
+    <row r="16" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -9361,56 +9407,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -9418,6 +9414,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9433,17 +9479,17 @@
       <selection activeCell="B2" sqref="B2:X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="17" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="8"/>
-    <col min="2" max="2" width="3.6640625" style="8" customWidth="1"/>
-    <col min="3" max="23" width="10.83203125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="4.33203125" style="8"/>
+    <col min="1" max="1" width="4.375" style="8"/>
+    <col min="2" max="2" width="3.625" style="8" customWidth="1"/>
+    <col min="3" max="23" width="10.875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="3.625" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="4.375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" customHeight="1"/>
-    <row r="2" spans="2:24" ht="20" customHeight="1">
+    <row r="1" spans="2:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -9468,7 +9514,7 @@
       <c r="W2" s="9"/>
       <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="2:24" ht="40" customHeight="1">
+    <row r="3" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -9517,79 +9563,79 @@
       <c r="W3" s="9"/>
       <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="2:24" ht="40" customHeight="1">
+    <row r="4" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="17" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="17" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="18"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="2:24" ht="40" customHeight="1">
+    <row r="5" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="19" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="2:24" ht="40" customHeight="1">
+    <row r="6" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
@@ -9634,83 +9680,83 @@
       <c r="W6" s="4"/>
       <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="2:24" ht="40" customHeight="1">
+    <row r="7" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="17" t="s">
+      <c r="S7" s="15"/>
+      <c r="T7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="2:24" ht="40" customHeight="1">
+    <row r="8" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="19" t="s">
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="19" t="s">
+      <c r="Q8" s="17"/>
+      <c r="R8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="2:24" ht="40" customHeight="1">
+    <row r="9" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -9751,79 +9797,79 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="2:24" ht="40" customHeight="1">
+    <row r="10" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="17" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17" t="s">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="19"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="2:24" ht="40" customHeight="1">
+    <row r="11" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="19" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R11" s="20"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="2:24" ht="40" customHeight="1">
+    <row r="12" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -9843,14 +9889,14 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="20"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="2:24" ht="40" customHeight="1">
+    <row r="13" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -9890,12 +9936,12 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="2:24" ht="40" customHeight="1">
+    <row r="14" spans="2:24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -9940,7 +9986,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="2:24" ht="39.5" customHeight="1">
+    <row r="15" spans="2:24" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -9961,10 +10007,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -9974,7 +10020,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="2:24" ht="20" customHeight="1">
+    <row r="16" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -10001,56 +10047,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -10058,6 +10054,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/双拼键位图.xlsx
+++ b/resources/双拼键位图.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shuang\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hokitlee\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E90E888-146D-4E64-818D-F7C92ABA3BEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043E9A93-F83B-4D06-9519-2A457B1D7532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="823" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="552" windowWidth="21036" windowHeight="11400" tabRatio="823" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="国标双拼" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="键道双拼3" sheetId="3" r:id="rId12"/>
     <sheet name="键道双拼6" sheetId="4" r:id="rId13"/>
     <sheet name="小月双拼" sheetId="14" r:id="rId14"/>
+    <sheet name="韵标双拼" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="177">
   <si>
     <t>Q</t>
   </si>
@@ -549,13 +550,40 @@
   <si>
     <t>ez</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v</t>
+  </si>
+  <si>
+    <t>韵标</t>
+  </si>
+  <si>
+    <t>块拼</t>
+  </si>
+  <si>
+    <t>ep</t>
+  </si>
+  <si>
+    <t>ez</t>
+  </si>
+  <si>
+    <t>em</t>
+  </si>
+  <si>
+    <t>ec</t>
+  </si>
+  <si>
+    <t>el</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +655,12 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -771,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,6 +846,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -823,15 +869,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1206,79 +1243,79 @@
     </row>
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -1330,73 +1367,73 @@
     <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -1444,40 +1481,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -1485,30 +1522,30 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -1532,10 +1569,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="17"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -1579,8 +1616,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -1650,10 +1687,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -1690,63 +1727,63 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1848,75 +1885,75 @@
     </row>
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -1968,77 +2005,77 @@
     <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16" t="s">
+      <c r="S8" s="21"/>
+      <c r="T8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -2086,40 +2123,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -2127,28 +2164,28 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -2172,10 +2209,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="17"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -2186,49 +2223,49 @@
       <c r="E13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="23" t="s">
         <v>68</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="23" t="s">
         <v>69</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="P13" s="22" t="s">
+      <c r="P13" s="23" t="s">
         <v>70</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="21" t="s">
+      <c r="R13" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="S13" s="22" t="s">
+      <c r="S13" s="23" t="s">
         <v>71</v>
       </c>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -2239,46 +2276,46 @@
       <c r="E14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="23" t="s">
         <v>72</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="23" t="s">
         <v>73</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="23" t="s">
         <v>74</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="O14" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="P14" s="22" t="s">
+      <c r="P14" s="23" t="s">
         <v>75</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="21" t="s">
+      <c r="R14" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="S14" s="22" t="s">
+      <c r="S14" s="23" t="s">
         <v>76</v>
       </c>
       <c r="T14" s="10"/>
@@ -2294,26 +2331,26 @@
       <c r="E15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="23" t="s">
         <v>57</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="J15" s="22"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -2350,6 +2387,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="O15:P15"/>
@@ -2366,59 +2456,6 @@
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2522,79 +2559,79 @@
     </row>
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16" t="s">
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -2648,79 +2685,79 @@
     <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16" t="s">
+      <c r="M8" s="21"/>
+      <c r="N8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16" t="s">
+      <c r="O8" s="21"/>
+      <c r="P8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16" t="s">
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16" t="s">
+      <c r="S8" s="21"/>
+      <c r="T8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -2768,40 +2805,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -2809,30 +2846,30 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -2856,10 +2893,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="17"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -2903,8 +2940,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -2974,10 +3011,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -3014,63 +3051,63 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3173,71 +3210,71 @@
     </row>
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="17"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -3293,75 +3330,75 @@
     <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16" t="s">
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -3407,38 +3444,38 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -3446,32 +3483,32 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16" t="s">
+      <c r="J11" s="21"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16" t="s">
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="17"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -3495,10 +3532,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="17"/>
       <c r="X12" s="10"/>
     </row>
     <row r="13" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -3541,8 +3578,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="11">
         <v>3</v>
       </c>
@@ -3614,10 +3651,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -3654,63 +3691,63 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3813,71 +3850,71 @@
     </row>
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -3933,79 +3970,79 @@
     <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16" t="s">
+      <c r="M8" s="21"/>
+      <c r="N8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16" t="s">
+      <c r="O8" s="21"/>
+      <c r="P8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16" t="s">
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -4051,38 +4088,38 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -4090,28 +4127,28 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -4135,10 +4172,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="17"/>
       <c r="X12" s="10"/>
     </row>
     <row r="13" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -4181,8 +4218,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="11">
         <v>6</v>
       </c>
@@ -4254,10 +4291,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -4294,63 +4331,63 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4362,8 +4399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4452,73 +4489,73 @@
     </row>
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="2"/>
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="2"/>
       <c r="X5" s="5"/>
     </row>
@@ -4570,75 +4607,75 @@
     <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16" t="s">
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="5"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -4686,40 +4723,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
@@ -4727,30 +4764,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16" t="s">
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
@@ -4774,10 +4811,10 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="17"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
     </row>
@@ -4821,8 +4858,8 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
@@ -4892,10 +4929,10 @@
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -4932,11 +4969,662 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBABDC9-43A7-4E8E-852E-B8B7479AE4E1}">
+  <dimension ref="B1:X16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="16.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="8"/>
+    <col min="2" max="2" width="3.6640625" style="8" customWidth="1"/>
+    <col min="3" max="23" width="10.77734375" style="8" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="4.33203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+    </row>
+    <row r="3" spans="2:24" ht="40.049999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+    </row>
+    <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="10"/>
+      <c r="C4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="19"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+    </row>
+    <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+    </row>
+    <row r="6" spans="2:24" ht="40.049999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="10"/>
+    </row>
+    <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="10"/>
+    </row>
+    <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="10"/>
+    </row>
+    <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+    </row>
+    <row r="10" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="19"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="V10" s="16"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+    </row>
+    <row r="11" spans="2:24" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="R11" s="21"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+    </row>
+    <row r="12" spans="2:24" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="V12" s="17"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+    </row>
+    <row r="13" spans="2:24" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+    </row>
+    <row r="14" spans="2:24" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+    </row>
+    <row r="15" spans="2:24" ht="39.450000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="O15" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+    </row>
+    <row r="16" spans="2:24" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="U10:V11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
@@ -4944,55 +5632,55 @@
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5090,79 +5778,79 @@
     </row>
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -5214,73 +5902,73 @@
     <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -5328,68 +6016,68 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
-      <c r="T10" s="19" t="s">
+      <c r="T10" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
       <c r="X10" s="10"/>
     </row>
     <row r="11" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.85">
@@ -5528,10 +6216,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -5568,6 +6256,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="T10:W11"/>
     <mergeCell ref="O10:P10"/>
@@ -5584,46 +6312,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5725,81 +6413,81 @@
     </row>
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -5851,75 +6539,75 @@
     <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14" t="s">
+      <c r="U7" s="19"/>
+      <c r="V7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="W7" s="15"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -5967,40 +6655,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -6008,24 +6696,24 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -6049,10 +6737,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="17"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -6096,8 +6784,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -6167,10 +6855,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -6207,63 +6895,63 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6365,79 +7053,79 @@
     </row>
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -6489,75 +7177,75 @@
     <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14" t="s">
+      <c r="U7" s="19"/>
+      <c r="V7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="W7" s="15"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -6605,40 +7293,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -6646,26 +7334,26 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -6689,10 +7377,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="17"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -6736,8 +7424,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -6807,10 +7495,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -6847,63 +7535,63 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7005,75 +7693,75 @@
     </row>
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16" t="s">
+      <c r="L5" s="21"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -7125,75 +7813,75 @@
     <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16" t="s">
+      <c r="S8" s="21"/>
+      <c r="T8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -7241,40 +7929,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -7282,28 +7970,28 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -7327,10 +8015,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="17"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -7374,8 +8062,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -7445,10 +8133,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -7485,63 +8173,63 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7641,77 +8329,77 @@
     </row>
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16" t="s">
+      <c r="L5" s="21"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -7765,73 +8453,73 @@
     <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -7879,40 +8567,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -7920,30 +8608,30 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16" t="s">
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="R11" s="17"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -7967,10 +8655,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="17"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -8014,8 +8702,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -8085,10 +8773,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -8125,63 +8813,63 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8283,77 +8971,77 @@
     </row>
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -8405,71 +9093,71 @@
     <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -8517,40 +9205,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -8558,30 +9246,30 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -8605,10 +9293,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="17"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -8652,8 +9340,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -8723,10 +9411,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -8763,63 +9451,63 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8921,75 +9609,75 @@
     </row>
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -9043,77 +9731,77 @@
     <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14" t="s">
+      <c r="U7" s="19"/>
+      <c r="V7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="W7" s="15"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16" t="s">
+      <c r="M8" s="21"/>
+      <c r="N8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16" t="s">
+      <c r="O8" s="21"/>
+      <c r="P8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -9159,38 +9847,38 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -9198,28 +9886,28 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -9243,10 +9931,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="17"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -9290,8 +9978,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -9361,10 +10049,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -9401,63 +10089,63 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9559,73 +10247,73 @@
     </row>
     <row r="4" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="14" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="14" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="16" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -9677,77 +10365,77 @@
     <row r="7" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16" t="s">
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="16" t="s">
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -9795,40 +10483,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -9836,30 +10524,30 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16" t="s">
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="R11" s="17"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -9883,10 +10571,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="17"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -9930,8 +10618,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -10001,10 +10689,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -10041,63 +10729,63 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/双拼键位图.xlsx
+++ b/resources/双拼键位图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinyu\Documents\workspace\Shuang\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A52619-8DFD-481E-B5D1-DFFE72A1BB9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09CD141-19D7-4B21-9913-E4AC27E551EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="450" windowWidth="26715" windowHeight="14130" tabRatio="823" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="241">
   <si>
     <t>Q</t>
   </si>
@@ -1135,15 +1135,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1156,14 +1147,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1532,79 +1532,79 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23" t="s">
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -1656,73 +1656,73 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="21" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1770,68 +1770,68 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
-      <c r="T10" s="19" t="s">
+      <c r="T10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
       <c r="X10" s="10"/>
     </row>
     <row r="11" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.7">
@@ -1970,10 +1970,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -2010,46 +2010,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="T10:W11"/>
     <mergeCell ref="O10:P10"/>
@@ -2066,6 +2026,46 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2167,75 +2167,75 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -2287,77 +2287,77 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="21" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23" t="s">
+      <c r="S8" s="21"/>
+      <c r="T8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2405,40 +2405,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -2446,28 +2446,28 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -2491,10 +2491,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="24"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -2505,49 +2505,49 @@
       <c r="E13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="26"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="27" t="s">
         <v>68</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="27" t="s">
         <v>69</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="P13" s="26" t="s">
+      <c r="P13" s="27" t="s">
         <v>70</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="S13" s="26" t="s">
+      <c r="S13" s="27" t="s">
         <v>71</v>
       </c>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -2558,46 +2558,46 @@
       <c r="E14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="27" t="s">
         <v>72</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="27" t="s">
         <v>73</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="27" t="s">
         <v>74</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="P14" s="26" t="s">
+      <c r="P14" s="27" t="s">
         <v>75</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="R14" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="S14" s="26" t="s">
+      <c r="S14" s="27" t="s">
         <v>76</v>
       </c>
       <c r="T14" s="10"/>
@@ -2613,26 +2613,26 @@
       <c r="E15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="27" t="s">
         <v>57</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="J15" s="26"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -2669,59 +2669,6 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="O15:P15"/>
@@ -2738,6 +2685,59 @@
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2841,79 +2841,79 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23" t="s">
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -2967,79 +2967,79 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="21" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23" t="s">
+      <c r="M8" s="21"/>
+      <c r="N8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23" t="s">
+      <c r="O8" s="21"/>
+      <c r="P8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23" t="s">
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23" t="s">
+      <c r="S8" s="21"/>
+      <c r="T8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3087,40 +3087,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -3128,30 +3128,30 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -3175,10 +3175,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="24"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -3222,8 +3222,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -3293,10 +3293,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -3333,56 +3333,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -3390,6 +3340,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3492,71 +3492,71 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="24"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -3612,75 +3612,75 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="21" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23" t="s">
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3726,38 +3726,38 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -3765,32 +3765,32 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23" t="s">
+      <c r="J11" s="21"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23" t="s">
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="24"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -3814,10 +3814,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="24"/>
       <c r="X12" s="10"/>
     </row>
     <row r="13" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3860,8 +3860,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="11">
         <v>3</v>
       </c>
@@ -3933,10 +3933,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -3973,56 +3973,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -4030,6 +3980,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4132,71 +4132,71 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -4252,79 +4252,79 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="21" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23" t="s">
+      <c r="M8" s="21"/>
+      <c r="N8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23" t="s">
+      <c r="O8" s="21"/>
+      <c r="P8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23" t="s">
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4370,38 +4370,38 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -4409,28 +4409,30 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -4454,10 +4456,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="24"/>
       <c r="X12" s="10"/>
     </row>
     <row r="13" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4500,8 +4502,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="11">
         <v>6</v>
       </c>
@@ -4573,10 +4575,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -4613,56 +4615,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -4670,6 +4622,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4771,73 +4773,73 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="2"/>
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="2"/>
       <c r="X5" s="5"/>
     </row>
@@ -4889,75 +4891,75 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="21" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23" t="s">
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="5"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5005,40 +5007,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
@@ -5046,30 +5048,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
@@ -5093,10 +5095,10 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="24"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
     </row>
@@ -5140,8 +5142,8 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
@@ -5211,10 +5213,10 @@
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -5251,56 +5253,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -5308,6 +5260,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -5409,77 +5411,77 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="10"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
     </row>
@@ -5533,81 +5535,81 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="21" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23" t="s">
+      <c r="K8" s="21"/>
+      <c r="L8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23" t="s">
+      <c r="M8" s="21"/>
+      <c r="N8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23" t="s">
+      <c r="O8" s="21"/>
+      <c r="P8" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23" t="s">
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -5655,40 +5657,40 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -5696,32 +5698,32 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23" t="s">
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="R11" s="24"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -5745,10 +5747,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="24"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -5792,8 +5794,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -5863,10 +5865,693 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+    </row>
+    <row r="16" spans="2:24" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20679197-8AC8-42F5-84A2-0BAA0E0BC611}">
+  <dimension ref="B1:X16"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="8"/>
+    <col min="2" max="2" width="3.625" style="8" customWidth="1"/>
+    <col min="3" max="23" width="11.125" style="8" customWidth="1"/>
+    <col min="24" max="24" width="3.625" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="4.375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:24" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+    </row>
+    <row r="3" spans="2:24" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="10"/>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+    </row>
+    <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="10"/>
+      <c r="C4" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="V4" s="19"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+    </row>
+    <row r="5" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="V5" s="21"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+    </row>
+    <row r="6" spans="2:24" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="10"/>
+    </row>
+    <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="W7" s="19"/>
+      <c r="X7" s="10"/>
+    </row>
+    <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="W8" s="21"/>
+      <c r="X8" s="10"/>
+    </row>
+    <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+    </row>
+    <row r="10" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="R10" s="19"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="V10" s="23"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+    </row>
+    <row r="11" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="R11" s="21"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+    </row>
+    <row r="12" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+    </row>
+    <row r="13" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="T13" s="10"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+    </row>
+    <row r="14" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+    </row>
+    <row r="15" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="O15" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="P15" s="22"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -5961,689 +6646,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20679197-8AC8-42F5-84A2-0BAA0E0BC611}">
-  <dimension ref="B1:X16"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:X16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.375" style="8"/>
-    <col min="2" max="2" width="3.625" style="8" customWidth="1"/>
-    <col min="3" max="23" width="11.125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="3.625" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="4.375" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:24" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:24" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-    </row>
-    <row r="3" spans="2:24" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="10"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-    </row>
-    <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="10"/>
-      <c r="C4" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="V4" s="22"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-    </row>
-    <row r="5" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="V5" s="24"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-    </row>
-    <row r="6" spans="2:24" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="10"/>
-    </row>
-    <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="W7" s="22"/>
-      <c r="X7" s="10"/>
-    </row>
-    <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="W8" s="24"/>
-      <c r="X8" s="10"/>
-    </row>
-    <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-    </row>
-    <row r="10" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="R10" s="22"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="V10" s="19"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-    </row>
-    <row r="11" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="R11" s="24"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-    </row>
-    <row r="12" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-    </row>
-    <row r="13" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q13" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-    </row>
-    <row r="14" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="S14" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-    </row>
-    <row r="15" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-    </row>
-    <row r="16" spans="2:24" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-  </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6743,81 +6745,81 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23" t="s">
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -6869,75 +6871,75 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="21" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21" t="s">
+      <c r="U7" s="19"/>
+      <c r="V7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="W7" s="22"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6985,40 +6987,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -7026,24 +7028,24 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -7067,10 +7069,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="24"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -7114,8 +7116,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -7185,10 +7187,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -7225,56 +7227,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -7282,6 +7234,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7383,79 +7385,79 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -7507,75 +7509,75 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="21" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21" t="s">
+      <c r="U7" s="19"/>
+      <c r="V7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="W7" s="22"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7623,40 +7625,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -7664,26 +7666,26 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -7707,10 +7709,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="24"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -7754,8 +7756,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -7825,10 +7827,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -7865,56 +7867,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -7922,6 +7874,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8023,75 +8025,75 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23" t="s">
+      <c r="L5" s="21"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -8143,75 +8145,75 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="21" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23" t="s">
+      <c r="S8" s="21"/>
+      <c r="T8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -8259,40 +8261,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -8300,28 +8302,28 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -8345,10 +8347,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="24"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -8392,8 +8394,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -8463,10 +8465,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="27" t="s">
+      <c r="O15" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="27"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -8503,56 +8505,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -8560,6 +8512,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8659,77 +8661,77 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23" t="s">
+      <c r="L5" s="21"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -8783,73 +8785,73 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="21" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8897,40 +8899,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -8938,30 +8940,30 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="R11" s="24"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -8985,10 +8987,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="24"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -9032,8 +9034,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -9103,10 +9105,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -9143,56 +9145,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -9200,6 +9152,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9301,77 +9303,77 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -9423,71 +9425,71 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="21" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9535,40 +9537,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -9576,30 +9578,30 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -9623,10 +9625,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="24"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -9670,8 +9672,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -9741,10 +9743,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -9781,56 +9783,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -9838,6 +9790,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9939,75 +9941,75 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -10061,77 +10063,77 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="21" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21" t="s">
+      <c r="U7" s="19"/>
+      <c r="V7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="W7" s="22"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23" t="s">
+      <c r="M8" s="21"/>
+      <c r="N8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23" t="s">
+      <c r="O8" s="21"/>
+      <c r="P8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10177,38 +10179,38 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -10216,28 +10218,28 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -10261,10 +10263,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="24"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -10308,8 +10310,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -10379,10 +10381,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -10419,56 +10421,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -10476,6 +10428,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10577,79 +10579,79 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -10701,73 +10703,73 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="21" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10815,40 +10817,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -10856,30 +10858,30 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -10903,10 +10905,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="24"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -10950,8 +10952,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -11021,10 +11023,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -11061,56 +11063,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -11118,6 +11070,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11219,73 +11221,73 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="22"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="23" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10"/>
     </row>
@@ -11337,77 +11339,77 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="21" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23" t="s">
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="23" t="s">
+      <c r="Q8" s="21"/>
+      <c r="R8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11455,40 +11457,40 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="21" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21" t="s">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="22"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
     </row>
@@ -11496,30 +11498,30 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23" t="s">
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="R11" s="24"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
@@ -11543,10 +11545,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="20"/>
+      <c r="V12" s="24"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
@@ -11590,8 +11592,8 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
     </row>
@@ -11661,10 +11663,10 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="18"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -11701,56 +11703,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="U12:V13"/>
@@ -11758,6 +11710,56 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/双拼键位图.xlsx
+++ b/resources/双拼键位图.xlsx
@@ -3734,7 +3734,7 @@
   <dimension ref="B1:X16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4234,7 +4234,7 @@
         <v>39</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>40</v>

--- a/resources/双拼键位图.xlsx
+++ b/resources/双拼键位图.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinyu\workspace\Shuang\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gordon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD684EC-B8CA-4438-BFB7-C411D75151A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C93EB1-088B-42D6-BFA1-D4CAE9D8E417}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="806" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11565" tabRatio="806" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="自然码" sheetId="18" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="259">
   <si>
     <t>Q</t>
   </si>
@@ -737,6 +737,114 @@
   </si>
   <si>
     <t>eq</t>
+  </si>
+  <si>
+    <t>uan</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>er</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ue</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ve</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ang</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>an</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>eng</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ong</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>iong</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>iang</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>uang</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ou</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ua</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ao</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>uai</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>un</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>vn</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ian</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>eg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1185,28 +1293,22 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1215,14 +1317,20 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1612,7 +1720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9582CB-AB40-4E8F-BECE-A0A747679EA1}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1702,79 +1810,79 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
+      <c r="N4" s="24"/>
+      <c r="O4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24" t="s">
+      <c r="L5" s="26"/>
+      <c r="M5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24" t="s">
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -1826,73 +1934,73 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -1940,68 +2048,68 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="26" t="s">
+      <c r="T10" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
@@ -2141,10 +2249,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -2181,46 +2289,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="T10:W11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -2237,6 +2305,46 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T10:W11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2339,79 +2447,79 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
+      <c r="N4" s="24"/>
+      <c r="O4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24" t="s">
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -2465,79 +2573,79 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24" t="s">
+      <c r="M8" s="26"/>
+      <c r="N8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24" t="s">
+      <c r="O8" s="26"/>
+      <c r="P8" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24" t="s">
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24" t="s">
+      <c r="S8" s="26"/>
+      <c r="T8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2585,40 +2693,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="R10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="25"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -2626,30 +2734,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24" t="s">
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24" t="s">
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -2792,10 +2900,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -2832,6 +2940,56 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -2839,56 +2997,6 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2992,71 +3100,71 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24" t="s">
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="24"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -3112,75 +3220,75 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24" t="s">
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3226,38 +3334,38 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="25"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -3265,32 +3373,32 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24" t="s">
+      <c r="H11" s="26"/>
+      <c r="I11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24" t="s">
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24" t="s">
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="R11" s="24"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -3435,10 +3543,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -3475,6 +3583,56 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -3482,56 +3640,6 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3635,71 +3743,71 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -3755,79 +3863,79 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24" t="s">
+      <c r="M8" s="26"/>
+      <c r="N8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24" t="s">
+      <c r="O8" s="26"/>
+      <c r="P8" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24" t="s">
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3873,38 +3981,38 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="25"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -3912,30 +4020,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24" t="s">
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24" t="s">
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="24"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -4080,10 +4188,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -4120,6 +4228,56 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -4127,56 +4285,6 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4282,75 +4390,75 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
+      <c r="N4" s="24"/>
+      <c r="O4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24" t="s">
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -4406,77 +4514,77 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24" t="s">
+      <c r="M8" s="26"/>
+      <c r="N8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24" t="s">
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -4526,40 +4634,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="R10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="25"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -4567,28 +4675,28 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="26"/>
+      <c r="K11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -4733,10 +4841,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -4773,6 +4881,56 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -4780,56 +4938,6 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4931,75 +5039,75 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
+      <c r="N4" s="24"/>
+      <c r="O4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24" t="s">
+      <c r="J5" s="26"/>
+      <c r="K5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -5051,77 +5159,77 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24" t="s">
+      <c r="S8" s="26"/>
+      <c r="T8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5169,40 +5277,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="25"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -5210,28 +5318,28 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24" t="s">
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -5394,10 +5502,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -5434,20 +5542,46 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="U10:V11"/>
@@ -5463,46 +5597,20 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O14:P14"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5514,8 +5622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5604,73 +5712,77 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="13"/>
-      <c r="C4" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="C4" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="13"/>
       <c r="X4" s="14"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="13"/>
       <c r="X5" s="14"/>
     </row>
@@ -5722,75 +5834,77 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="14"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5838,40 +5952,40 @@
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="E10" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" s="23"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="R10" s="24"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="25"/>
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
     </row>
@@ -5879,30 +5993,28 @@
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
     </row>
@@ -5962,7 +6074,7 @@
         <v>41</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>43</v>
@@ -6007,7 +6119,7 @@
         <v>40</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>68</v>
@@ -6045,10 +6157,10 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
@@ -6085,6 +6197,56 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -6092,60 +6254,10 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6243,77 +6355,77 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="3"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
+      <c r="N4" s="24"/>
+      <c r="O4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24" t="s">
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
@@ -6367,81 +6479,81 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24" t="s">
+      <c r="K8" s="26"/>
+      <c r="L8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24" t="s">
+      <c r="M8" s="26"/>
+      <c r="N8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24" t="s">
+      <c r="O8" s="26"/>
+      <c r="P8" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24" t="s">
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6489,40 +6601,40 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="25"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -6530,32 +6642,32 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="26"/>
+      <c r="K11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24" t="s">
+      <c r="L11" s="26"/>
+      <c r="M11" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24" t="s">
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="R11" s="24"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -6698,10 +6810,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -6738,6 +6850,56 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -6745,56 +6907,6 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6898,81 +7010,81 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="3"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
+      <c r="N4" s="24"/>
+      <c r="O4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24" t="s">
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24" t="s">
+      <c r="T5" s="26"/>
+      <c r="U5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="24"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
@@ -7024,91 +7136,91 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23" t="s">
+      <c r="U7" s="24"/>
+      <c r="V7" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="W7" s="23"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24" t="s">
+      <c r="K8" s="26"/>
+      <c r="L8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24" t="s">
+      <c r="M8" s="26"/>
+      <c r="N8" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24" t="s">
+      <c r="O8" s="26"/>
+      <c r="P8" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24" t="s">
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24" t="s">
+      <c r="S8" s="26"/>
+      <c r="T8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24" t="s">
+      <c r="U8" s="26"/>
+      <c r="V8" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="W8" s="24"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7156,40 +7268,40 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="25"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -7197,36 +7309,36 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24" t="s">
+      <c r="H11" s="26"/>
+      <c r="I11" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24" t="s">
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24" t="s">
+      <c r="N11" s="26"/>
+      <c r="O11" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24" t="s">
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="R11" s="24"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -7383,10 +7495,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -7423,6 +7535,56 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -7430,56 +7592,6 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7581,81 +7693,81 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
+      <c r="N4" s="24"/>
+      <c r="O4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24" t="s">
+      <c r="J5" s="26"/>
+      <c r="K5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24" t="s">
+      <c r="L5" s="26"/>
+      <c r="M5" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24" t="s">
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -7707,75 +7819,75 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23" t="s">
+      <c r="U7" s="24"/>
+      <c r="V7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="23"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7823,40 +7935,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="25"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -7864,24 +7976,24 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -8024,10 +8136,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -8064,6 +8176,56 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -8071,56 +8233,6 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8222,79 +8334,79 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
+      <c r="N4" s="24"/>
+      <c r="O4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24" t="s">
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24" t="s">
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -8346,75 +8458,75 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23" t="s">
+      <c r="U7" s="24"/>
+      <c r="V7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="23"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8462,40 +8574,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="25"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -8503,26 +8615,26 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -8665,10 +8777,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -8705,6 +8817,56 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -8712,56 +8874,6 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8863,75 +8975,75 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
+      <c r="N4" s="24"/>
+      <c r="O4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24" t="s">
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -8983,75 +9095,75 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24" t="s">
+      <c r="S8" s="26"/>
+      <c r="T8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9099,40 +9211,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="25"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -9140,28 +9252,28 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24" t="s">
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -9344,6 +9456,56 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -9351,56 +9513,6 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -9500,77 +9612,77 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
+      <c r="N4" s="24"/>
+      <c r="O4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24" t="s">
+      <c r="J5" s="26"/>
+      <c r="K5" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24" t="s">
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -9624,73 +9736,73 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9738,40 +9850,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="25"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -9779,30 +9891,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="26"/>
+      <c r="K11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24" t="s">
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="24"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -9945,10 +10057,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -9985,6 +10097,56 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -9992,56 +10154,6 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -10143,77 +10255,77 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="31" t="s">
+      <c r="H4" s="30"/>
+      <c r="I4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="31" t="s">
+      <c r="J4" s="30"/>
+      <c r="K4" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="31" t="s">
+      <c r="L4" s="30"/>
+      <c r="M4" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="31" t="s">
+      <c r="N4" s="30"/>
+      <c r="O4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="31" t="s">
+      <c r="P4" s="30"/>
+      <c r="Q4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="32"/>
-      <c r="S4" s="31" t="s">
+      <c r="R4" s="30"/>
+      <c r="S4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="31" t="s">
+      <c r="T4" s="30"/>
+      <c r="U4" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="V4" s="32"/>
+      <c r="V4" s="30"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="34" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="34" t="s">
+      <c r="N5" s="32"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="35"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="35"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="32"/>
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
     </row>
@@ -10265,71 +10377,71 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="31" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="31" t="s">
+      <c r="I7" s="30"/>
+      <c r="J7" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="31" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="31" t="s">
+      <c r="M7" s="30"/>
+      <c r="N7" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="31" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="31" t="s">
+      <c r="Q7" s="30"/>
+      <c r="R7" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="32"/>
-      <c r="T7" s="31" t="s">
+      <c r="S7" s="30"/>
+      <c r="T7" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="32"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="32"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="30"/>
       <c r="X7" s="16"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="34" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="35"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="32"/>
       <c r="X8" s="16"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -10377,40 +10489,40 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="31" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="31" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="31" t="s">
+      <c r="J10" s="30"/>
+      <c r="K10" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="31" t="s">
+      <c r="L10" s="30"/>
+      <c r="M10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="31" t="s">
+      <c r="N10" s="30"/>
+      <c r="O10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="31" t="s">
+      <c r="P10" s="30"/>
+      <c r="Q10" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="R10" s="32"/>
+      <c r="R10" s="30"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
-      <c r="U10" s="33" t="s">
+      <c r="U10" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="V10" s="33"/>
+      <c r="V10" s="35"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
     </row>
@@ -10418,30 +10530,30 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="34" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="34" t="s">
+      <c r="H11" s="32"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="34" t="s">
+      <c r="L11" s="32"/>
+      <c r="M11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="35"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="32"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
     </row>
@@ -10465,10 +10577,10 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="29" t="s">
+      <c r="U12" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="V12" s="29"/>
+      <c r="V12" s="33"/>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
     </row>
@@ -10512,8 +10624,8 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
     </row>
@@ -10584,10 +10696,10 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="30" t="s">
+      <c r="O15" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="30"/>
+      <c r="P15" s="34"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
@@ -10624,6 +10736,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -10640,47 +10793,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10782,75 +10894,75 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
+      <c r="N4" s="24"/>
+      <c r="O4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24" t="s">
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -10904,77 +11016,77 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23" t="s">
+      <c r="U7" s="24"/>
+      <c r="V7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="23"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24" t="s">
+      <c r="M8" s="26"/>
+      <c r="N8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24" t="s">
+      <c r="O8" s="26"/>
+      <c r="P8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11020,38 +11132,38 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="25"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -11059,28 +11171,28 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24" t="s">
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -11223,10 +11335,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -11263,6 +11375,56 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -11270,56 +11432,6 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -11421,79 +11533,79 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
+      <c r="N4" s="24"/>
+      <c r="O4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24" t="s">
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -11545,73 +11657,73 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11659,40 +11771,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="R10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="25"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -11700,30 +11812,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24" t="s">
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -11866,10 +11978,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -11906,6 +12018,56 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -11913,56 +12075,6 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -12064,73 +12176,73 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23" t="s">
+      <c r="N4" s="24"/>
+      <c r="O4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="T4" s="24"/>
+      <c r="U4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="23"/>
+      <c r="V4" s="24"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24" t="s">
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -12182,77 +12294,77 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23" t="s">
+      <c r="S7" s="24"/>
+      <c r="T7" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24" t="s">
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24" t="s">
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12300,40 +12412,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="V10" s="26"/>
+      <c r="V10" s="25"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -12341,30 +12453,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24" t="s">
+      <c r="L11" s="26"/>
+      <c r="M11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24" t="s">
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="24"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -12507,10 +12619,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -12547,6 +12659,56 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -12554,56 +12716,6 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/resources/双拼键位图.xlsx
+++ b/resources/双拼键位图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gordon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C93EB1-088B-42D6-BFA1-D4CAE9D8E417}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439EE1DA-D758-4998-B0BF-C1A5C67C0841}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11565" tabRatio="806" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11565" tabRatio="806" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="自然码" sheetId="18" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="260">
   <si>
     <t>Q</t>
   </si>
@@ -747,103 +747,107 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>ue</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ang</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>an</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>eng</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ong</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>iong</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>iang</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>uang</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ou</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ua</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ao</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>uai</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>un</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ian</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>eg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>iao</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>ing</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>ue</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ve</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ang</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>an</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>en</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>eng</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ong</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>iong</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>in</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>ia</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>iang</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>uang</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ou</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ao</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>uai</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>un</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>vn</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ian</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>eg</t>
+    <t>ve</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1293,17 +1297,17 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1311,17 +1315,17 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1720,7 +1724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9582CB-AB40-4E8F-BECE-A0A747679EA1}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1810,79 +1814,79 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -1934,73 +1938,73 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -2048,68 +2052,68 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="25" t="s">
+      <c r="T10" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
@@ -2249,10 +2253,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -2289,6 +2293,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T10:W11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -2305,46 +2349,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="T10:W11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2447,79 +2451,79 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -2573,79 +2577,79 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26" t="s">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26" t="s">
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26" t="s">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2693,40 +2697,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -2734,30 +2738,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -2900,10 +2904,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -2940,56 +2944,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -2997,6 +2951,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3100,71 +3104,71 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="26"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -3220,75 +3224,75 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3334,38 +3338,38 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -3373,32 +3377,32 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="R11" s="26"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -3543,10 +3547,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -3583,56 +3587,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -3640,6 +3594,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3743,71 +3747,71 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -3863,79 +3867,79 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26" t="s">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26" t="s">
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3981,38 +3985,38 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -4020,30 +4024,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="26"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -4188,10 +4192,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -4228,56 +4232,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -4285,6 +4239,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4390,75 +4394,75 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -4514,77 +4518,77 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26" t="s">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -4634,40 +4638,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -4675,28 +4679,28 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -4841,10 +4845,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -4881,56 +4885,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -4938,6 +4892,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5039,75 +5043,75 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -5159,77 +5163,77 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5277,40 +5281,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -5318,28 +5322,28 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -5502,10 +5506,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -5542,46 +5546,20 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="R13:S13"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="U10:V11"/>
@@ -5597,20 +5575,46 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5622,8 +5626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5712,77 +5716,77 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="13"/>
-      <c r="C4" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="C4" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="13"/>
       <c r="X4" s="14"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="13"/>
       <c r="X5" s="14"/>
     </row>
@@ -5834,77 +5838,75 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
       <c r="X7" s="14"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5952,40 +5954,40 @@
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24" t="s">
+      <c r="E10" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="R10" s="23"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
     </row>
@@ -5993,28 +5995,28 @@
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
     </row>
@@ -6074,7 +6076,7 @@
         <v>41</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>43</v>
@@ -6119,7 +6121,7 @@
         <v>40</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>68</v>
@@ -6157,10 +6159,10 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
@@ -6197,56 +6199,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -6254,6 +6206,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6355,77 +6357,77 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="3"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
@@ -6479,81 +6481,81 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26" t="s">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26" t="s">
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26" t="s">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6601,40 +6603,40 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -6642,32 +6644,32 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="R11" s="26"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -6810,10 +6812,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -6850,56 +6852,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -6907,6 +6859,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7010,81 +7012,81 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="3"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26" t="s">
+      <c r="T5" s="24"/>
+      <c r="U5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="26"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
@@ -7136,91 +7138,91 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24" t="s">
+      <c r="U7" s="23"/>
+      <c r="V7" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="W7" s="24"/>
+      <c r="W7" s="23"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26" t="s">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26" t="s">
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26" t="s">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26" t="s">
+      <c r="U8" s="24"/>
+      <c r="V8" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="W8" s="26"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7268,40 +7270,40 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -7309,36 +7311,36 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26" t="s">
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="R11" s="26"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -7495,10 +7497,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -7535,56 +7537,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -7592,6 +7544,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7693,81 +7695,81 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -7819,75 +7821,75 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24" t="s">
+      <c r="U7" s="23"/>
+      <c r="V7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="24"/>
+      <c r="W7" s="23"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7935,40 +7937,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -7976,24 +7978,24 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -8136,10 +8138,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -8176,56 +8178,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -8233,6 +8185,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8334,79 +8336,79 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -8458,75 +8460,75 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24" t="s">
+      <c r="U7" s="23"/>
+      <c r="V7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="24"/>
+      <c r="W7" s="23"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8574,40 +8576,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -8615,26 +8617,26 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -8777,10 +8779,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -8817,56 +8819,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -8874,6 +8826,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8975,75 +8977,75 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -9095,75 +9097,75 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9211,40 +9213,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -9252,28 +9254,28 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -9456,56 +9458,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -9513,6 +9465,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -9612,77 +9614,77 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -9736,73 +9738,73 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9850,40 +9852,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -9891,30 +9893,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="26"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -10057,10 +10059,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -10097,56 +10099,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -10154,6 +10106,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -10255,77 +10257,77 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="29" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29" t="s">
+      <c r="H4" s="32"/>
+      <c r="I4" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="29" t="s">
+      <c r="J4" s="32"/>
+      <c r="K4" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="29" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="29" t="s">
+      <c r="N4" s="32"/>
+      <c r="O4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="29" t="s">
+      <c r="P4" s="32"/>
+      <c r="Q4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="30"/>
-      <c r="S4" s="29" t="s">
+      <c r="R4" s="32"/>
+      <c r="S4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="30"/>
-      <c r="U4" s="29" t="s">
+      <c r="T4" s="32"/>
+      <c r="U4" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="V4" s="30"/>
+      <c r="V4" s="32"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="31" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="31" t="s">
+      <c r="N5" s="30"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="32"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="30"/>
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
     </row>
@@ -10377,71 +10379,71 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="29" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="29" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="29" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="29" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="29" t="s">
+      <c r="M7" s="32"/>
+      <c r="N7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="29" t="s">
+      <c r="O7" s="32"/>
+      <c r="P7" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="29" t="s">
+      <c r="Q7" s="32"/>
+      <c r="R7" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="29" t="s">
+      <c r="S7" s="32"/>
+      <c r="T7" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="30"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="30"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="32"/>
       <c r="X7" s="16"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="31" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="32"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="30"/>
       <c r="X8" s="16"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -10489,34 +10491,34 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="29" t="s">
+      <c r="F10" s="32"/>
+      <c r="G10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29" t="s">
+      <c r="H10" s="32"/>
+      <c r="I10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="29" t="s">
+      <c r="J10" s="32"/>
+      <c r="K10" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="29" t="s">
+      <c r="L10" s="32"/>
+      <c r="M10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="30"/>
-      <c r="O10" s="29" t="s">
+      <c r="N10" s="32"/>
+      <c r="O10" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="29" t="s">
+      <c r="P10" s="32"/>
+      <c r="Q10" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="R10" s="30"/>
+      <c r="R10" s="32"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="35" t="s">
@@ -10530,26 +10532,26 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="31" t="s">
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="31" t="s">
+      <c r="H11" s="30"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="31" t="s">
+      <c r="L11" s="30"/>
+      <c r="M11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="32"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="30"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
       <c r="U11" s="35"/>
@@ -10736,47 +10738,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
@@ -10793,6 +10754,47 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10894,75 +10896,75 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -11016,77 +11018,77 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24" t="s">
+      <c r="U7" s="23"/>
+      <c r="V7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="24"/>
+      <c r="W7" s="23"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26" t="s">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26" t="s">
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11132,38 +11134,38 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -11171,28 +11173,28 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -11335,10 +11337,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -11375,56 +11377,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -11432,6 +11384,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -11533,79 +11535,79 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -11657,73 +11659,73 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11771,40 +11773,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -11812,30 +11814,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -11978,10 +11980,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -12018,56 +12020,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -12075,6 +12027,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -12176,73 +12178,73 @@
     </row>
     <row r="4" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="24"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
     </row>
@@ -12294,77 +12296,77 @@
     <row r="7" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26" t="s">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12412,40 +12414,40 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="V10" s="25"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
@@ -12453,30 +12455,30 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26" t="s">
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="26"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
@@ -12619,10 +12621,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="23"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -12659,56 +12661,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O10:P10"/>
@@ -12716,6 +12668,56 @@
     <mergeCell ref="U10:V11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/resources/双拼键位图.xlsx
+++ b/resources/双拼键位图.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="自然码" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,6 +26,7 @@
     <sheet name="小月双拼" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="韵标块拼" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="C双拼" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="白云双拼" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="234">
   <si>
     <t xml:space="preserve">Q</t>
   </si>
@@ -736,6 +737,9 @@
   </si>
   <si>
     <t xml:space="preserve">特殊映射</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白云</t>
   </si>
 </sst>
 </file>
@@ -2496,8 +2500,8 @@
   </sheetPr>
   <dimension ref="B1:X16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.3828125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7777,6 +7781,652 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:X16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.3828125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="1" width="11.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="3.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="25" style="1" width="4.38"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="6"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="V10" s="9"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V12" s="14"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="O15:P15"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">

--- a/resources/双拼键位图.xlsx
+++ b/resources/双拼键位图.xlsx
@@ -7789,7 +7789,7 @@
   <dimension ref="B1:X16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="T22" activeCellId="0" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.3828125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
